--- a/outputs/aht/fs_bus_aht_monthly.xlsx
+++ b/outputs/aht/fs_bus_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>389.3354029134209</v>
+        <v>389.839004523493</v>
       </c>
       <c r="D2" t="n">
-        <v>387.5655598184819</v>
+        <v>387.1878791222662</v>
       </c>
       <c r="E2" t="n">
-        <v>421.6636758246626</v>
+        <v>423.6330389573832</v>
       </c>
       <c r="F2" t="n">
-        <v>389.3354029134209</v>
+        <v>389.839004523493</v>
       </c>
       <c r="G2" t="n">
-        <v>389.3354029134209</v>
+        <v>389.839004523493</v>
       </c>
       <c r="H2" t="n">
-        <v>15.1269318956402</v>
+        <v>16.01405457619148</v>
       </c>
       <c r="I2" t="n">
-        <v>15.1269318956402</v>
+        <v>16.01405457619148</v>
       </c>
       <c r="J2" t="n">
-        <v>15.1269318956402</v>
+        <v>16.01405457619148</v>
       </c>
       <c r="K2" t="n">
-        <v>15.1269318956402</v>
+        <v>16.01405457619148</v>
       </c>
       <c r="L2" t="n">
-        <v>15.1269318956402</v>
+        <v>16.01405457619148</v>
       </c>
       <c r="M2" t="n">
-        <v>15.1269318956402</v>
+        <v>16.01405457619148</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>404.4623348090611</v>
+        <v>405.8530590996845</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>390.9067519756387</v>
+        <v>391.3686196646341</v>
       </c>
       <c r="D3" t="n">
-        <v>393.1341873876243</v>
+        <v>394.0460215750592</v>
       </c>
       <c r="E3" t="n">
-        <v>428.8642690513218</v>
+        <v>429.7663543154579</v>
       </c>
       <c r="F3" t="n">
-        <v>390.9067519756387</v>
+        <v>391.3686196646341</v>
       </c>
       <c r="G3" t="n">
-        <v>390.9067519756387</v>
+        <v>391.3686196646341</v>
       </c>
       <c r="H3" t="n">
-        <v>20.34562849722987</v>
+        <v>21.18512130830581</v>
       </c>
       <c r="I3" t="n">
-        <v>20.34562849722987</v>
+        <v>21.18512130830581</v>
       </c>
       <c r="J3" t="n">
-        <v>20.34562849722987</v>
+        <v>21.18512130830581</v>
       </c>
       <c r="K3" t="n">
-        <v>20.34562849722987</v>
+        <v>21.18512130830581</v>
       </c>
       <c r="L3" t="n">
-        <v>20.34562849722987</v>
+        <v>21.18512130830581</v>
       </c>
       <c r="M3" t="n">
-        <v>20.34562849722987</v>
+        <v>21.18512130830581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>411.2523804728685</v>
+        <v>412.5537409729399</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>392.3260349995773</v>
+        <v>392.7502075340519</v>
       </c>
       <c r="D4" t="n">
-        <v>376.669145385112</v>
+        <v>377.9364484967619</v>
       </c>
       <c r="E4" t="n">
-        <v>409.6925683596714</v>
+        <v>413.0808299796732</v>
       </c>
       <c r="F4" t="n">
-        <v>392.3260349995773</v>
+        <v>392.7502075340519</v>
       </c>
       <c r="G4" t="n">
-        <v>392.3260349995773</v>
+        <v>392.7502075340519</v>
       </c>
       <c r="H4" t="n">
-        <v>0.733484573309921</v>
+        <v>1.455257387469067</v>
       </c>
       <c r="I4" t="n">
-        <v>0.733484573309921</v>
+        <v>1.455257387469067</v>
       </c>
       <c r="J4" t="n">
-        <v>0.733484573309921</v>
+        <v>1.455257387469067</v>
       </c>
       <c r="K4" t="n">
-        <v>0.733484573309921</v>
+        <v>1.455257387469067</v>
       </c>
       <c r="L4" t="n">
-        <v>0.733484573309921</v>
+        <v>1.455257387469067</v>
       </c>
       <c r="M4" t="n">
-        <v>0.733484573309921</v>
+        <v>1.455257387469067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>393.0595195728872</v>
+        <v>394.205464921521</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8973840628086</v>
+        <v>394.2798225856549</v>
       </c>
       <c r="D5" t="n">
-        <v>395.4344899646698</v>
+        <v>395.5272606976229</v>
       </c>
       <c r="E5" t="n">
-        <v>429.6474913565711</v>
+        <v>429.5406124211059</v>
       </c>
       <c r="F5" t="n">
-        <v>393.8973840628086</v>
+        <v>394.2798225856549</v>
       </c>
       <c r="G5" t="n">
-        <v>393.8973840628086</v>
+        <v>394.2798225856549</v>
       </c>
       <c r="H5" t="n">
-        <v>17.69074477972399</v>
+        <v>18.34894210987204</v>
       </c>
       <c r="I5" t="n">
-        <v>17.69074477972399</v>
+        <v>18.34894210987204</v>
       </c>
       <c r="J5" t="n">
-        <v>17.69074477972399</v>
+        <v>18.34894210987204</v>
       </c>
       <c r="K5" t="n">
-        <v>17.69074477972399</v>
+        <v>18.34894210987204</v>
       </c>
       <c r="L5" t="n">
-        <v>17.69074477972399</v>
+        <v>18.34894210987204</v>
       </c>
       <c r="M5" t="n">
-        <v>17.69074477972399</v>
+        <v>18.34894210987204</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>411.5881288425326</v>
+        <v>412.6287646955269</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>395.4180444465808</v>
+        <v>395.7600952162385</v>
       </c>
       <c r="D6" t="n">
-        <v>394.4368768325011</v>
+        <v>393.5679614536204</v>
       </c>
       <c r="E6" t="n">
-        <v>427.6674205589335</v>
+        <v>428.6516615356988</v>
       </c>
       <c r="F6" t="n">
-        <v>395.4180444465808</v>
+        <v>395.7600952162385</v>
       </c>
       <c r="G6" t="n">
-        <v>395.4180444465808</v>
+        <v>395.7600952162385</v>
       </c>
       <c r="H6" t="n">
-        <v>15.24828726256016</v>
+        <v>15.87775562437003</v>
       </c>
       <c r="I6" t="n">
-        <v>15.24828726256016</v>
+        <v>15.87775562437003</v>
       </c>
       <c r="J6" t="n">
-        <v>15.24828726256016</v>
+        <v>15.87775562437003</v>
       </c>
       <c r="K6" t="n">
-        <v>15.24828726256016</v>
+        <v>15.87775562437003</v>
       </c>
       <c r="L6" t="n">
-        <v>15.24828726256016</v>
+        <v>15.87775562437003</v>
       </c>
       <c r="M6" t="n">
-        <v>15.24828726256016</v>
+        <v>15.87775562437003</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.6663317091409</v>
+        <v>411.6378508406086</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>396.9893935118264</v>
+        <v>397.289710263543</v>
       </c>
       <c r="D7" t="n">
-        <v>382.5653337679063</v>
+        <v>378.5043535373209</v>
       </c>
       <c r="E7" t="n">
-        <v>415.747442233361</v>
+        <v>413.7908565355776</v>
       </c>
       <c r="F7" t="n">
-        <v>396.9893935118264</v>
+        <v>397.289710263543</v>
       </c>
       <c r="G7" t="n">
-        <v>396.9893935118264</v>
+        <v>397.289710263543</v>
       </c>
       <c r="H7" t="n">
-        <v>2.670928600728185</v>
+        <v>-1.330220562750074</v>
       </c>
       <c r="I7" t="n">
-        <v>2.670928600728185</v>
+        <v>-1.330220562750074</v>
       </c>
       <c r="J7" t="n">
-        <v>2.670928600728185</v>
+        <v>-1.330220562750074</v>
       </c>
       <c r="K7" t="n">
-        <v>2.670928600728185</v>
+        <v>-1.330220562750074</v>
       </c>
       <c r="L7" t="n">
-        <v>2.670928600728185</v>
+        <v>-1.330220562750074</v>
       </c>
       <c r="M7" t="n">
-        <v>2.670928600728185</v>
+        <v>-1.330220562750074</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>399.6603221125546</v>
+        <v>395.959489700793</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>398.5100538975478</v>
+        <v>398.7699828899667</v>
       </c>
       <c r="D8" t="n">
-        <v>381.191209422167</v>
+        <v>382.8836618822886</v>
       </c>
       <c r="E8" t="n">
-        <v>416.2603629912279</v>
+        <v>416.0574234610103</v>
       </c>
       <c r="F8" t="n">
-        <v>398.5100538975478</v>
+        <v>398.7699828899667</v>
       </c>
       <c r="G8" t="n">
-        <v>398.5100538975478</v>
+        <v>398.7699828899667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.419499164450799</v>
+        <v>0.8352870802252442</v>
       </c>
       <c r="I8" t="n">
-        <v>0.419499164450799</v>
+        <v>0.8352870802252442</v>
       </c>
       <c r="J8" t="n">
-        <v>0.419499164450799</v>
+        <v>0.8352870802252442</v>
       </c>
       <c r="K8" t="n">
-        <v>0.419499164450799</v>
+        <v>0.8352870802252442</v>
       </c>
       <c r="L8" t="n">
-        <v>0.419499164450799</v>
+        <v>0.8352870802252442</v>
       </c>
       <c r="M8" t="n">
-        <v>0.419499164450799</v>
+        <v>0.8352870802252442</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>398.9295530619987</v>
+        <v>399.605269970192</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>400.0814029662413</v>
+        <v>400.299597909081</v>
       </c>
       <c r="D9" t="n">
-        <v>388.2589362771149</v>
+        <v>389.5303862632057</v>
       </c>
       <c r="E9" t="n">
-        <v>421.6376192926094</v>
+        <v>423.4419899188164</v>
       </c>
       <c r="F9" t="n">
-        <v>400.0814029662413</v>
+        <v>400.299597909081</v>
       </c>
       <c r="G9" t="n">
-        <v>400.0814029662413</v>
+        <v>400.299597909081</v>
       </c>
       <c r="H9" t="n">
-        <v>5.483864015843253</v>
+        <v>6.034776770367224</v>
       </c>
       <c r="I9" t="n">
-        <v>5.483864015843253</v>
+        <v>6.034776770367224</v>
       </c>
       <c r="J9" t="n">
-        <v>5.483864015843253</v>
+        <v>6.034776770367224</v>
       </c>
       <c r="K9" t="n">
-        <v>5.483864015843253</v>
+        <v>6.034776770367224</v>
       </c>
       <c r="L9" t="n">
-        <v>5.483864015843253</v>
+        <v>6.034776770367224</v>
       </c>
       <c r="M9" t="n">
-        <v>5.483864015843253</v>
+        <v>6.034776770367224</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>405.5652669820846</v>
+        <v>406.3343746794482</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>401.6527520349348</v>
+        <v>401.8292129281953</v>
       </c>
       <c r="D10" t="n">
-        <v>399.3767940439309</v>
+        <v>399.1171405471358</v>
       </c>
       <c r="E10" t="n">
-        <v>432.4279255220634</v>
+        <v>434.4828913743109</v>
       </c>
       <c r="F10" t="n">
-        <v>401.6527520349348</v>
+        <v>401.8292129281953</v>
       </c>
       <c r="G10" t="n">
-        <v>401.6527520349348</v>
+        <v>401.8292129281953</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8962170565132</v>
+        <v>14.63515005097319</v>
       </c>
       <c r="I10" t="n">
-        <v>13.8962170565132</v>
+        <v>14.63515005097319</v>
       </c>
       <c r="J10" t="n">
-        <v>13.8962170565132</v>
+        <v>14.63515005097319</v>
       </c>
       <c r="K10" t="n">
-        <v>13.8962170565132</v>
+        <v>14.63515005097319</v>
       </c>
       <c r="L10" t="n">
-        <v>13.8962170565132</v>
+        <v>14.63515005097319</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8962170565132</v>
+        <v>14.63515005097319</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>415.548969091448</v>
+        <v>416.4643629791685</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>403.1734124241017</v>
+        <v>403.3094854629738</v>
       </c>
       <c r="D11" t="n">
-        <v>387.637389065071</v>
+        <v>388.1158939672541</v>
       </c>
       <c r="E11" t="n">
-        <v>421.545283557454</v>
+        <v>423.0270204274135</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1734124241017</v>
+        <v>403.3094854629738</v>
       </c>
       <c r="G11" t="n">
-        <v>403.1734124241017</v>
+        <v>403.3094854629738</v>
       </c>
       <c r="H11" t="n">
-        <v>1.308197078820185</v>
+        <v>2.20921503378741</v>
       </c>
       <c r="I11" t="n">
-        <v>1.308197078820185</v>
+        <v>2.20921503378741</v>
       </c>
       <c r="J11" t="n">
-        <v>1.308197078820185</v>
+        <v>2.20921503378741</v>
       </c>
       <c r="K11" t="n">
-        <v>1.308197078820185</v>
+        <v>2.20921503378741</v>
       </c>
       <c r="L11" t="n">
-        <v>1.308197078820185</v>
+        <v>2.20921503378741</v>
       </c>
       <c r="M11" t="n">
-        <v>1.308197078820185</v>
+        <v>2.20921503378741</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.4816095029219</v>
+        <v>405.5187004967612</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>404.7447614929076</v>
+        <v>404.8391004155782</v>
       </c>
       <c r="D12" t="n">
-        <v>389.9528674367861</v>
+        <v>389.1489295022304</v>
       </c>
       <c r="E12" t="n">
-        <v>421.9859376161676</v>
+        <v>423.3557798480153</v>
       </c>
       <c r="F12" t="n">
-        <v>404.7447614929076</v>
+        <v>404.8391004155782</v>
       </c>
       <c r="G12" t="n">
-        <v>404.7447614929076</v>
+        <v>404.8391004155782</v>
       </c>
       <c r="H12" t="n">
-        <v>1.037155975221963</v>
+        <v>2.057472843790083</v>
       </c>
       <c r="I12" t="n">
-        <v>1.037155975221963</v>
+        <v>2.057472843790083</v>
       </c>
       <c r="J12" t="n">
-        <v>1.037155975221963</v>
+        <v>2.057472843790083</v>
       </c>
       <c r="K12" t="n">
-        <v>1.037155975221963</v>
+        <v>2.057472843790083</v>
       </c>
       <c r="L12" t="n">
-        <v>1.037155975221963</v>
+        <v>2.057472843790083</v>
       </c>
       <c r="M12" t="n">
-        <v>1.037155975221963</v>
+        <v>2.057472843790083</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>405.7819174681295</v>
+        <v>406.8965732593683</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>406.265421882222</v>
+        <v>406.3193730342967</v>
       </c>
       <c r="D13" t="n">
-        <v>392.2263015067751</v>
+        <v>391.8178266248146</v>
       </c>
       <c r="E13" t="n">
-        <v>424.7703640379803</v>
+        <v>427.3123099367652</v>
       </c>
       <c r="F13" t="n">
-        <v>406.265421882222</v>
+        <v>406.3193730342967</v>
       </c>
       <c r="G13" t="n">
-        <v>406.265421882222</v>
+        <v>406.3193730342967</v>
       </c>
       <c r="H13" t="n">
-        <v>2.073188477700076</v>
+        <v>3.235375084603394</v>
       </c>
       <c r="I13" t="n">
-        <v>2.073188477700076</v>
+        <v>3.235375084603394</v>
       </c>
       <c r="J13" t="n">
-        <v>2.073188477700076</v>
+        <v>3.235375084603394</v>
       </c>
       <c r="K13" t="n">
-        <v>2.073188477700076</v>
+        <v>3.235375084603394</v>
       </c>
       <c r="L13" t="n">
-        <v>2.073188477700076</v>
+        <v>3.235375084603394</v>
       </c>
       <c r="M13" t="n">
-        <v>2.073188477700076</v>
+        <v>3.235375084603394</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>408.3386103599221</v>
+        <v>409.5547481189001</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>407.8367709511804</v>
+        <v>407.8489880736392</v>
       </c>
       <c r="D14" t="n">
-        <v>403.8367493702108</v>
+        <v>404.0805995376588</v>
       </c>
       <c r="E14" t="n">
-        <v>437.1738940937176</v>
+        <v>438.4923742797718</v>
       </c>
       <c r="F14" t="n">
-        <v>407.8367709511804</v>
+        <v>407.8489880736392</v>
       </c>
       <c r="G14" t="n">
-        <v>407.8367709511804</v>
+        <v>407.8489880736392</v>
       </c>
       <c r="H14" t="n">
-        <v>12.0819047800166</v>
+        <v>12.86725224539421</v>
       </c>
       <c r="I14" t="n">
-        <v>12.0819047800166</v>
+        <v>12.86725224539421</v>
       </c>
       <c r="J14" t="n">
-        <v>12.0819047800166</v>
+        <v>12.86725224539421</v>
       </c>
       <c r="K14" t="n">
-        <v>12.0819047800166</v>
+        <v>12.86725224539421</v>
       </c>
       <c r="L14" t="n">
-        <v>12.0819047800166</v>
+        <v>12.86725224539421</v>
       </c>
       <c r="M14" t="n">
-        <v>12.0819047800166</v>
+        <v>12.86725224539421</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>419.918675731197</v>
+        <v>420.7162403190334</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>409.4081200181529</v>
+        <v>409.3786030351031</v>
       </c>
       <c r="D15" t="n">
-        <v>402.8965175641801</v>
+        <v>403.6320476250007</v>
       </c>
       <c r="E15" t="n">
-        <v>436.7401834754696</v>
+        <v>437.789399885506</v>
       </c>
       <c r="F15" t="n">
-        <v>409.4081200181529</v>
+        <v>409.3786030351031</v>
       </c>
       <c r="G15" t="n">
-        <v>409.4081200181529</v>
+        <v>409.3786030351031</v>
       </c>
       <c r="H15" t="n">
-        <v>10.37240223827786</v>
+        <v>11.1913127310848</v>
       </c>
       <c r="I15" t="n">
-        <v>10.37240223827786</v>
+        <v>11.1913127310848</v>
       </c>
       <c r="J15" t="n">
-        <v>10.37240223827786</v>
+        <v>11.1913127310848</v>
       </c>
       <c r="K15" t="n">
-        <v>10.37240223827786</v>
+        <v>11.1913127310848</v>
       </c>
       <c r="L15" t="n">
-        <v>10.37240223827786</v>
+        <v>11.1913127310848</v>
       </c>
       <c r="M15" t="n">
-        <v>10.37240223827786</v>
+        <v>11.1913127310848</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>419.7805222564308</v>
+        <v>420.5699157661879</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>410.8274030463861</v>
+        <v>410.7601907422318</v>
       </c>
       <c r="D16" t="n">
-        <v>409.0567369437268</v>
+        <v>409.2111343274443</v>
       </c>
       <c r="E16" t="n">
-        <v>442.5465640040244</v>
+        <v>442.1590758697241</v>
       </c>
       <c r="F16" t="n">
-        <v>410.8274030463861</v>
+        <v>410.7601907422318</v>
       </c>
       <c r="G16" t="n">
-        <v>410.8274030463861</v>
+        <v>410.7601907422318</v>
       </c>
       <c r="H16" t="n">
-        <v>14.3619830357752</v>
+        <v>15.36543894898579</v>
       </c>
       <c r="I16" t="n">
-        <v>14.3619830357752</v>
+        <v>15.36543894898579</v>
       </c>
       <c r="J16" t="n">
-        <v>14.3619830357752</v>
+        <v>15.36543894898579</v>
       </c>
       <c r="K16" t="n">
-        <v>14.3619830357752</v>
+        <v>15.36543894898579</v>
       </c>
       <c r="L16" t="n">
-        <v>14.3619830357752</v>
+        <v>15.36543894898579</v>
       </c>
       <c r="M16" t="n">
-        <v>14.3619830357752</v>
+        <v>15.36543894898579</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>425.1893860821613</v>
+        <v>426.1256296912176</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>412.3987521162244</v>
+        <v>412.2898056578709</v>
       </c>
       <c r="D17" t="n">
-        <v>412.6562492689447</v>
+        <v>413.8948754039611</v>
       </c>
       <c r="E17" t="n">
-        <v>447.3937273222955</v>
+        <v>448.9959303089092</v>
       </c>
       <c r="F17" t="n">
-        <v>412.3987521162244</v>
+        <v>412.2898056578709</v>
       </c>
       <c r="G17" t="n">
-        <v>412.3987521162244</v>
+        <v>412.2898056578709</v>
       </c>
       <c r="H17" t="n">
-        <v>17.48459049230708</v>
+        <v>18.63613555791349</v>
       </c>
       <c r="I17" t="n">
-        <v>17.48459049230708</v>
+        <v>18.63613555791349</v>
       </c>
       <c r="J17" t="n">
-        <v>17.48459049230708</v>
+        <v>18.63613555791349</v>
       </c>
       <c r="K17" t="n">
-        <v>17.48459049230708</v>
+        <v>18.63613555791349</v>
       </c>
       <c r="L17" t="n">
-        <v>17.48459049230708</v>
+        <v>18.63613555791349</v>
       </c>
       <c r="M17" t="n">
-        <v>17.48459049230708</v>
+        <v>18.63613555791349</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>429.8833426085315</v>
+        <v>430.9259412157844</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>413.9194125063906</v>
+        <v>413.7700781568765</v>
       </c>
       <c r="D18" t="n">
-        <v>403.9967999476226</v>
+        <v>404.8553590169852</v>
       </c>
       <c r="E18" t="n">
-        <v>436.0716431824496</v>
+        <v>439.8724247667906</v>
       </c>
       <c r="F18" t="n">
-        <v>413.9194125063906</v>
+        <v>413.7700781568765</v>
       </c>
       <c r="G18" t="n">
-        <v>413.9194125063906</v>
+        <v>413.7700781568765</v>
       </c>
       <c r="H18" t="n">
-        <v>6.589160626871475</v>
+        <v>7.899123636532551</v>
       </c>
       <c r="I18" t="n">
-        <v>6.589160626871475</v>
+        <v>7.899123636532551</v>
       </c>
       <c r="J18" t="n">
-        <v>6.589160626871475</v>
+        <v>7.899123636532551</v>
       </c>
       <c r="K18" t="n">
-        <v>6.589160626871475</v>
+        <v>7.899123636532551</v>
       </c>
       <c r="L18" t="n">
-        <v>6.589160626871475</v>
+        <v>7.899123636532551</v>
       </c>
       <c r="M18" t="n">
-        <v>6.589160626871475</v>
+        <v>7.899123636532551</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>420.5085731332621</v>
+        <v>421.6692017934091</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>415.4907615777287</v>
+        <v>415.2996930089516</v>
       </c>
       <c r="D19" t="n">
-        <v>402.3308133505234</v>
+        <v>395.7107111729682</v>
       </c>
       <c r="E19" t="n">
-        <v>435.7106813799709</v>
+        <v>429.9399345868412</v>
       </c>
       <c r="F19" t="n">
-        <v>415.4907615777287</v>
+        <v>415.2996930089516</v>
       </c>
       <c r="G19" t="n">
-        <v>415.4907615777287</v>
+        <v>415.2996930089516</v>
       </c>
       <c r="H19" t="n">
-        <v>4.125788957549066</v>
+        <v>-2.401054943761014</v>
       </c>
       <c r="I19" t="n">
-        <v>4.125788957549066</v>
+        <v>-2.401054943761014</v>
       </c>
       <c r="J19" t="n">
-        <v>4.125788957549066</v>
+        <v>-2.401054943761014</v>
       </c>
       <c r="K19" t="n">
-        <v>4.125788957549066</v>
+        <v>-2.401054943761014</v>
       </c>
       <c r="L19" t="n">
-        <v>4.125788957549066</v>
+        <v>-2.401054943761014</v>
       </c>
       <c r="M19" t="n">
-        <v>4.125788957549066</v>
+        <v>-2.401054943761014</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>419.6165505352777</v>
+        <v>412.8986380651905</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>417.0114219693461</v>
+        <v>416.7799654464436</v>
       </c>
       <c r="D20" t="n">
-        <v>402.3375572334872</v>
+        <v>403.4113498173546</v>
       </c>
       <c r="E20" t="n">
-        <v>436.5534151161097</v>
+        <v>438.8855922480869</v>
       </c>
       <c r="F20" t="n">
-        <v>417.0114219693461</v>
+        <v>416.7799654464436</v>
       </c>
       <c r="G20" t="n">
-        <v>417.0114219693461</v>
+        <v>416.7799654464436</v>
       </c>
       <c r="H20" t="n">
-        <v>3.361986032186671</v>
+        <v>4.602993759165998</v>
       </c>
       <c r="I20" t="n">
-        <v>3.361986032186671</v>
+        <v>4.602993759165998</v>
       </c>
       <c r="J20" t="n">
-        <v>3.361986032186671</v>
+        <v>4.602993759165998</v>
       </c>
       <c r="K20" t="n">
-        <v>3.361986032186671</v>
+        <v>4.602993759165998</v>
       </c>
       <c r="L20" t="n">
-        <v>3.361986032186671</v>
+        <v>4.602993759165998</v>
       </c>
       <c r="M20" t="n">
-        <v>3.361986032186671</v>
+        <v>4.602993759165998</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>420.3734080015328</v>
+        <v>421.3829592056096</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>418.5827710399926</v>
+        <v>418.3095803960327</v>
       </c>
       <c r="D21" t="n">
-        <v>411.4800788100061</v>
+        <v>413.3178984484401</v>
       </c>
       <c r="E21" t="n">
-        <v>444.7285836460575</v>
+        <v>447.1125485113652</v>
       </c>
       <c r="F21" t="n">
-        <v>418.5827710399926</v>
+        <v>418.3095803960327</v>
       </c>
       <c r="G21" t="n">
-        <v>418.5827710399926</v>
+        <v>418.3095803960327</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5568815862217</v>
+        <v>11.73579202412071</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5568815862217</v>
+        <v>11.73579202412071</v>
       </c>
       <c r="J21" t="n">
-        <v>10.5568815862217</v>
+        <v>11.73579202412071</v>
       </c>
       <c r="K21" t="n">
-        <v>10.5568815862217</v>
+        <v>11.73579202412071</v>
       </c>
       <c r="L21" t="n">
-        <v>10.5568815862217</v>
+        <v>11.73579202412071</v>
       </c>
       <c r="M21" t="n">
-        <v>10.5568815862217</v>
+        <v>11.73579202412071</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>429.1396526262143</v>
+        <v>430.0453724201535</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>420.154120110639</v>
+        <v>419.8391953456218</v>
       </c>
       <c r="D22" t="n">
-        <v>409.1377417396415</v>
+        <v>409.6073224531366</v>
       </c>
       <c r="E22" t="n">
-        <v>442.4201370010404</v>
+        <v>445.5703035457865</v>
       </c>
       <c r="F22" t="n">
-        <v>420.154120110639</v>
+        <v>419.8391953456218</v>
       </c>
       <c r="G22" t="n">
-        <v>420.154120110639</v>
+        <v>419.8391953456218</v>
       </c>
       <c r="H22" t="n">
-        <v>5.65605940623521</v>
+        <v>6.677756781077099</v>
       </c>
       <c r="I22" t="n">
-        <v>5.65605940623521</v>
+        <v>6.677756781077099</v>
       </c>
       <c r="J22" t="n">
-        <v>5.65605940623521</v>
+        <v>6.677756781077099</v>
       </c>
       <c r="K22" t="n">
-        <v>5.65605940623521</v>
+        <v>6.677756781077099</v>
       </c>
       <c r="L22" t="n">
-        <v>5.65605940623521</v>
+        <v>6.677756781077099</v>
       </c>
       <c r="M22" t="n">
-        <v>5.65605940623521</v>
+        <v>6.677756781077099</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>425.8101795168743</v>
+        <v>426.5169521266989</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>421.6747805056841</v>
+        <v>421.3194678307667</v>
       </c>
       <c r="D23" t="n">
-        <v>402.7372260607866</v>
+        <v>402.6076426997171</v>
       </c>
       <c r="E23" t="n">
-        <v>437.0929242839304</v>
+        <v>436.7775610919513</v>
       </c>
       <c r="F23" t="n">
-        <v>421.6747805056841</v>
+        <v>421.3194678307667</v>
       </c>
       <c r="G23" t="n">
-        <v>421.6747805056841</v>
+        <v>421.3194678307667</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.414312020016219</v>
+        <v>-0.4998969206563646</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.414312020016219</v>
+        <v>-0.4998969206563646</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.414312020016219</v>
+        <v>-0.4998969206563646</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.414312020016219</v>
+        <v>-0.4998969206563646</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.414312020016219</v>
+        <v>-0.4998969206563646</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.414312020016219</v>
+        <v>-0.4998969206563646</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>420.2604684856679</v>
+        <v>420.8195709101103</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>423.2461295805641</v>
+        <v>422.8490827320829</v>
       </c>
       <c r="D24" t="n">
-        <v>416.7380593199014</v>
+        <v>416.1080863210403</v>
       </c>
       <c r="E24" t="n">
-        <v>450.6004018043063</v>
+        <v>451.1031014509718</v>
       </c>
       <c r="F24" t="n">
-        <v>423.2461295805641</v>
+        <v>422.8490827320829</v>
       </c>
       <c r="G24" t="n">
-        <v>423.2461295805641</v>
+        <v>422.8490827320829</v>
       </c>
       <c r="H24" t="n">
-        <v>10.67883352964684</v>
+        <v>11.51845683047773</v>
       </c>
       <c r="I24" t="n">
-        <v>10.67883352964684</v>
+        <v>11.51845683047773</v>
       </c>
       <c r="J24" t="n">
-        <v>10.67883352964684</v>
+        <v>11.51845683047773</v>
       </c>
       <c r="K24" t="n">
-        <v>10.67883352964684</v>
+        <v>11.51845683047773</v>
       </c>
       <c r="L24" t="n">
-        <v>10.67883352964684</v>
+        <v>11.51845683047773</v>
       </c>
       <c r="M24" t="n">
-        <v>10.67883352964684</v>
+        <v>11.51845683047773</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>433.9249631102109</v>
+        <v>434.3675395625607</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>424.7667899738005</v>
+        <v>424.3293552297401</v>
       </c>
       <c r="D25" t="n">
-        <v>409.1918898286883</v>
+        <v>409.6046396888628</v>
       </c>
       <c r="E25" t="n">
-        <v>443.7664624203101</v>
+        <v>444.5787247748341</v>
       </c>
       <c r="F25" t="n">
-        <v>424.7667899738005</v>
+        <v>424.3293552297401</v>
       </c>
       <c r="G25" t="n">
-        <v>424.7667899738005</v>
+        <v>424.3293552297401</v>
       </c>
       <c r="H25" t="n">
-        <v>1.665512719050764</v>
+        <v>2.393361806998752</v>
       </c>
       <c r="I25" t="n">
-        <v>1.665512719050764</v>
+        <v>2.393361806998752</v>
       </c>
       <c r="J25" t="n">
-        <v>1.665512719050764</v>
+        <v>2.393361806998752</v>
       </c>
       <c r="K25" t="n">
-        <v>1.665512719050764</v>
+        <v>2.393361806998752</v>
       </c>
       <c r="L25" t="n">
-        <v>1.665512719050764</v>
+        <v>2.393361806998752</v>
       </c>
       <c r="M25" t="n">
-        <v>1.665512719050764</v>
+        <v>2.393361806998752</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>426.4323026928513</v>
+        <v>426.7227170367389</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>426.3381390468115</v>
+        <v>425.858970143986</v>
       </c>
       <c r="D26" t="n">
-        <v>419.3220278900887</v>
+        <v>418.4689730123354</v>
       </c>
       <c r="E26" t="n">
-        <v>452.3968282572038</v>
+        <v>453.7374893553872</v>
       </c>
       <c r="F26" t="n">
-        <v>426.3381390468115</v>
+        <v>425.858970143986</v>
       </c>
       <c r="G26" t="n">
-        <v>426.3381390468115</v>
+        <v>425.858970143986</v>
       </c>
       <c r="H26" t="n">
-        <v>8.911742566288273</v>
+        <v>9.605403464774531</v>
       </c>
       <c r="I26" t="n">
-        <v>8.911742566288273</v>
+        <v>9.605403464774531</v>
       </c>
       <c r="J26" t="n">
-        <v>8.911742566288273</v>
+        <v>9.605403464774531</v>
       </c>
       <c r="K26" t="n">
-        <v>8.911742566288273</v>
+        <v>9.605403464774531</v>
       </c>
       <c r="L26" t="n">
-        <v>8.911742566288273</v>
+        <v>9.605403464774531</v>
       </c>
       <c r="M26" t="n">
-        <v>8.911742566288273</v>
+        <v>9.605403464774531</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>435.2498816130998</v>
+        <v>435.4643736087606</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>427.9094881198305</v>
+        <v>427.3885850344295</v>
       </c>
       <c r="D27" t="n">
-        <v>412.2395303252963</v>
+        <v>410.5943942191532</v>
       </c>
       <c r="E27" t="n">
-        <v>445.8559844107486</v>
+        <v>445.0934969729777</v>
       </c>
       <c r="F27" t="n">
-        <v>427.9094881198305</v>
+        <v>427.3885850344295</v>
       </c>
       <c r="G27" t="n">
-        <v>427.9094881198305</v>
+        <v>427.3885850344295</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5819260773037749</v>
+        <v>1.390906680735619</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5819260773037749</v>
+        <v>1.390906680735619</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5819260773037749</v>
+        <v>1.390906680735619</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5819260773037749</v>
+        <v>1.390906680735619</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5819260773037749</v>
+        <v>1.390906680735619</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5819260773037749</v>
+        <v>1.390906680735619</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>428.4914141971342</v>
+        <v>428.7794917151651</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>429.3287711535249</v>
+        <v>428.7701726774108</v>
       </c>
       <c r="D28" t="n">
-        <v>441.2563090641624</v>
+        <v>441.8915981317838</v>
       </c>
       <c r="E28" t="n">
-        <v>475.1474465643778</v>
+        <v>475.5854672749567</v>
       </c>
       <c r="F28" t="n">
-        <v>429.3287711535249</v>
+        <v>428.7701726774108</v>
       </c>
       <c r="G28" t="n">
-        <v>429.3287711535249</v>
+        <v>428.7701726774108</v>
       </c>
       <c r="H28" t="n">
-        <v>28.0531906988846</v>
+        <v>29.3439972426083</v>
       </c>
       <c r="I28" t="n">
-        <v>28.0531906988846</v>
+        <v>29.3439972426083</v>
       </c>
       <c r="J28" t="n">
-        <v>28.0531906988846</v>
+        <v>29.3439972426083</v>
       </c>
       <c r="K28" t="n">
-        <v>28.0531906988846</v>
+        <v>29.3439972426083</v>
       </c>
       <c r="L28" t="n">
-        <v>28.0531906988846</v>
+        <v>29.3439972426083</v>
       </c>
       <c r="M28" t="n">
-        <v>28.0531906988846</v>
+        <v>29.3439972426083</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>457.3819618524095</v>
+        <v>458.114169920019</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>430.9001202265438</v>
+        <v>430.2997875678543</v>
       </c>
       <c r="D29" t="n">
-        <v>431.8194145639844</v>
+        <v>431.3776354032024</v>
       </c>
       <c r="E29" t="n">
-        <v>464.248600077028</v>
+        <v>466.6405297109893</v>
       </c>
       <c r="F29" t="n">
-        <v>430.9001202265438</v>
+        <v>430.2997875678543</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9001202265438</v>
+        <v>430.2997875678543</v>
       </c>
       <c r="H29" t="n">
-        <v>17.00954206273536</v>
+        <v>18.64872388904096</v>
       </c>
       <c r="I29" t="n">
-        <v>17.00954206273536</v>
+        <v>18.64872388904096</v>
       </c>
       <c r="J29" t="n">
-        <v>17.00954206273536</v>
+        <v>18.64872388904096</v>
       </c>
       <c r="K29" t="n">
-        <v>17.00954206273536</v>
+        <v>18.64872388904096</v>
       </c>
       <c r="L29" t="n">
-        <v>17.00954206273536</v>
+        <v>18.64872388904096</v>
       </c>
       <c r="M29" t="n">
-        <v>17.00954206273536</v>
+        <v>18.64872388904096</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>447.9096622892792</v>
+        <v>448.9485114568952</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>432.4207806215213</v>
+        <v>431.7800600253132</v>
       </c>
       <c r="D30" t="n">
-        <v>411.2343933024482</v>
+        <v>413.3411145281767</v>
       </c>
       <c r="E30" t="n">
-        <v>447.2798939481395</v>
+        <v>449.4881649500098</v>
       </c>
       <c r="F30" t="n">
-        <v>432.4207806215213</v>
+        <v>431.7800600253132</v>
       </c>
       <c r="G30" t="n">
-        <v>432.4207806215213</v>
+        <v>431.7800600253132</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.065381843590965</v>
+        <v>-0.116879037135878</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.065381843590965</v>
+        <v>-0.116879037135878</v>
       </c>
       <c r="J30" t="n">
-        <v>-2.065381843590965</v>
+        <v>-0.116879037135878</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.065381843590965</v>
+        <v>-0.116879037135878</v>
       </c>
       <c r="L30" t="n">
-        <v>-2.065381843590965</v>
+        <v>-0.116879037135878</v>
       </c>
       <c r="M30" t="n">
-        <v>-2.065381843590965</v>
+        <v>-0.116879037135878</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>430.3553987779303</v>
+        <v>431.6631809881773</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>433.9921296963313</v>
+        <v>433.3096748980208</v>
       </c>
       <c r="D31" t="n">
-        <v>422.9532551806029</v>
+        <v>412.5196384663333</v>
       </c>
       <c r="E31" t="n">
-        <v>454.6510822476333</v>
+        <v>447.9100692521735</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9921296963313</v>
+        <v>433.3096748980208</v>
       </c>
       <c r="G31" t="n">
-        <v>433.9921296963313</v>
+        <v>433.3096748980208</v>
       </c>
       <c r="H31" t="n">
-        <v>5.741410508120574</v>
+        <v>-3.307264290152998</v>
       </c>
       <c r="I31" t="n">
-        <v>5.741410508120574</v>
+        <v>-3.307264290152998</v>
       </c>
       <c r="J31" t="n">
-        <v>5.741410508120574</v>
+        <v>-3.307264290152998</v>
       </c>
       <c r="K31" t="n">
-        <v>5.741410508120574</v>
+        <v>-3.307264290152998</v>
       </c>
       <c r="L31" t="n">
-        <v>5.741410508120574</v>
+        <v>-3.307264290152998</v>
       </c>
       <c r="M31" t="n">
-        <v>5.741410508120574</v>
+        <v>-3.307264290152998</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>439.7335402044519</v>
+        <v>430.0024106078678</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>435.5127900916376</v>
+        <v>434.7895824361848</v>
       </c>
       <c r="D32" t="n">
-        <v>424.6827483121473</v>
+        <v>425.5459798239322</v>
       </c>
       <c r="E32" t="n">
-        <v>458.6445020855297</v>
+        <v>460.269695638446</v>
       </c>
       <c r="F32" t="n">
-        <v>435.5127900916376</v>
+        <v>434.7895824361848</v>
       </c>
       <c r="G32" t="n">
-        <v>435.5127900916376</v>
+        <v>434.7895824361848</v>
       </c>
       <c r="H32" t="n">
-        <v>6.34457645981866</v>
+        <v>8.45238307196017</v>
       </c>
       <c r="I32" t="n">
-        <v>6.34457645981866</v>
+        <v>8.45238307196017</v>
       </c>
       <c r="J32" t="n">
-        <v>6.34457645981866</v>
+        <v>8.45238307196017</v>
       </c>
       <c r="K32" t="n">
-        <v>6.34457645981866</v>
+        <v>8.45238307196017</v>
       </c>
       <c r="L32" t="n">
-        <v>6.34457645981866</v>
+        <v>8.45238307196017</v>
       </c>
       <c r="M32" t="n">
-        <v>6.34457645981866</v>
+        <v>8.45238307196017</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>441.8573665514562</v>
+        <v>443.241965508145</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>437.0841391667874</v>
+        <v>436.318820225621</v>
       </c>
       <c r="D33" t="n">
-        <v>435.7362990103258</v>
+        <v>437.1833111173642</v>
       </c>
       <c r="E33" t="n">
-        <v>469.7027560726491</v>
+        <v>470.1893079158964</v>
       </c>
       <c r="F33" t="n">
-        <v>437.0841391667874</v>
+        <v>436.318820225621</v>
       </c>
       <c r="G33" t="n">
-        <v>437.0841391667874</v>
+        <v>436.318820225621</v>
       </c>
       <c r="H33" t="n">
-        <v>15.4705596006046</v>
+        <v>17.28087275899055</v>
       </c>
       <c r="I33" t="n">
-        <v>15.4705596006046</v>
+        <v>17.28087275899055</v>
       </c>
       <c r="J33" t="n">
-        <v>15.4705596006046</v>
+        <v>17.28087275899055</v>
       </c>
       <c r="K33" t="n">
-        <v>15.4705596006046</v>
+        <v>17.28087275899055</v>
       </c>
       <c r="L33" t="n">
-        <v>15.4705596006046</v>
+        <v>17.28087275899055</v>
       </c>
       <c r="M33" t="n">
-        <v>15.4705596006046</v>
+        <v>17.28087275899055</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>452.554698767392</v>
+        <v>453.5996929846115</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>438.6554882446616</v>
+        <v>437.8479505588522</v>
       </c>
       <c r="D34" t="n">
-        <v>419.6614699995527</v>
+        <v>419.3772019584706</v>
       </c>
       <c r="E34" t="n">
-        <v>453.5560038402284</v>
+        <v>454.3230100210205</v>
       </c>
       <c r="F34" t="n">
-        <v>438.6554882446616</v>
+        <v>437.8479505588522</v>
       </c>
       <c r="G34" t="n">
-        <v>438.6554882446616</v>
+        <v>437.8479505588522</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.671991467683718</v>
+        <v>-1.377598935603619</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.671991467683718</v>
+        <v>-1.377598935603619</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.671991467683718</v>
+        <v>-1.377598935603619</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.671991467683718</v>
+        <v>-1.377598935603619</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.671991467683718</v>
+        <v>-1.377598935603619</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.671991467683718</v>
+        <v>-1.377598935603619</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>435.9834967769779</v>
+        <v>436.4703516232486</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>440.1761486426044</v>
+        <v>439.3277541071406</v>
       </c>
       <c r="D35" t="n">
-        <v>418.8732811570583</v>
+        <v>419.9918058882954</v>
       </c>
       <c r="E35" t="n">
-        <v>452.6280003571907</v>
+        <v>453.7355776917553</v>
       </c>
       <c r="F35" t="n">
-        <v>440.1761486426044</v>
+        <v>439.3277541071406</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1761486426044</v>
+        <v>439.3277541071406</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.910755937961034</v>
+        <v>-2.996098545520691</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.910755937961034</v>
+        <v>-2.996098545520691</v>
       </c>
       <c r="J35" t="n">
-        <v>-3.910755937961034</v>
+        <v>-2.996098545520691</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.910755937961034</v>
+        <v>-2.996098545520691</v>
       </c>
       <c r="L35" t="n">
-        <v>-3.910755937961034</v>
+        <v>-2.996098545520691</v>
       </c>
       <c r="M35" t="n">
-        <v>-3.910755937961034</v>
+        <v>-2.996098545520691</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>436.2653927046434</v>
+        <v>436.3316555616199</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>441.7474977231814</v>
+        <v>440.8525966745974</v>
       </c>
       <c r="D36" t="n">
-        <v>445.6909976890521</v>
+        <v>444.4660587040489</v>
       </c>
       <c r="E36" t="n">
-        <v>478.7780159927336</v>
+        <v>479.2564985118482</v>
       </c>
       <c r="F36" t="n">
-        <v>441.7474977231814</v>
+        <v>440.8525966745974</v>
       </c>
       <c r="G36" t="n">
-        <v>441.7474977231814</v>
+        <v>440.8525966745974</v>
       </c>
       <c r="H36" t="n">
-        <v>20.36332783933955</v>
+        <v>21.01189750884235</v>
       </c>
       <c r="I36" t="n">
-        <v>20.36332783933955</v>
+        <v>21.01189750884235</v>
       </c>
       <c r="J36" t="n">
-        <v>20.36332783933955</v>
+        <v>21.01189750884235</v>
       </c>
       <c r="K36" t="n">
-        <v>20.36332783933955</v>
+        <v>21.01189750884235</v>
       </c>
       <c r="L36" t="n">
-        <v>20.36332783933955</v>
+        <v>21.01189750884235</v>
       </c>
       <c r="M36" t="n">
-        <v>20.36332783933955</v>
+        <v>21.01189750884235</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>462.1108255625209</v>
+        <v>461.8644941834398</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>443.2681581237398</v>
+        <v>442.3282507721362</v>
       </c>
       <c r="D37" t="n">
-        <v>426.3604495904012</v>
+        <v>426.0115602424973</v>
       </c>
       <c r="E37" t="n">
-        <v>461.3295565840428</v>
+        <v>461.1147352405468</v>
       </c>
       <c r="F37" t="n">
-        <v>443.2681581237398</v>
+        <v>442.3282507721362</v>
       </c>
       <c r="G37" t="n">
-        <v>443.2681581237398</v>
+        <v>442.3282507721362</v>
       </c>
       <c r="H37" t="n">
-        <v>1.070293403400359</v>
+        <v>1.365921248226827</v>
       </c>
       <c r="I37" t="n">
-        <v>1.070293403400359</v>
+        <v>1.365921248226827</v>
       </c>
       <c r="J37" t="n">
-        <v>1.070293403400359</v>
+        <v>1.365921248226827</v>
       </c>
       <c r="K37" t="n">
-        <v>1.070293403400359</v>
+        <v>1.365921248226827</v>
       </c>
       <c r="L37" t="n">
-        <v>1.070293403400359</v>
+        <v>1.365921248226827</v>
       </c>
       <c r="M37" t="n">
-        <v>1.070293403400359</v>
+        <v>1.365921248226827</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>444.3384515271401</v>
+        <v>443.6941720203631</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>444.8395072058783</v>
+        <v>443.8530907778011</v>
       </c>
       <c r="D38" t="n">
-        <v>433.7096017581341</v>
+        <v>432.6084657726778</v>
       </c>
       <c r="E38" t="n">
-        <v>466.5650311647135</v>
+        <v>468.0282797556891</v>
       </c>
       <c r="F38" t="n">
-        <v>444.8395072058783</v>
+        <v>443.8530907778011</v>
       </c>
       <c r="G38" t="n">
-        <v>444.8395072058783</v>
+        <v>443.8530907778011</v>
       </c>
       <c r="H38" t="n">
-        <v>5.622731556971356</v>
+        <v>6.235060249449039</v>
       </c>
       <c r="I38" t="n">
-        <v>5.622731556971356</v>
+        <v>6.235060249449039</v>
       </c>
       <c r="J38" t="n">
-        <v>5.622731556971356</v>
+        <v>6.235060249449039</v>
       </c>
       <c r="K38" t="n">
-        <v>5.622731556971356</v>
+        <v>6.235060249449039</v>
       </c>
       <c r="L38" t="n">
-        <v>5.622731556971356</v>
+        <v>6.235060249449039</v>
       </c>
       <c r="M38" t="n">
-        <v>5.622731556971356</v>
+        <v>6.235060249449039</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>450.4622387628497</v>
+        <v>450.0881510272501</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>446.4108562880169</v>
+        <v>445.3779307834659</v>
       </c>
       <c r="D39" t="n">
-        <v>420.3951819738584</v>
+        <v>418.5126723688811</v>
       </c>
       <c r="E39" t="n">
-        <v>455.3831909079295</v>
+        <v>454.6603067849906</v>
       </c>
       <c r="F39" t="n">
-        <v>446.4108562880169</v>
+        <v>445.3779307834659</v>
       </c>
       <c r="G39" t="n">
-        <v>446.4108562880169</v>
+        <v>445.3779307834659</v>
       </c>
       <c r="H39" t="n">
-        <v>-9.016007439368618</v>
+        <v>-8.206316741778208</v>
       </c>
       <c r="I39" t="n">
-        <v>-9.016007439368618</v>
+        <v>-8.206316741778208</v>
       </c>
       <c r="J39" t="n">
-        <v>-9.016007439368618</v>
+        <v>-8.206316741778208</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.016007439368618</v>
+        <v>-8.206316741778208</v>
       </c>
       <c r="L39" t="n">
-        <v>-9.016007439368618</v>
+        <v>-8.206316741778208</v>
       </c>
       <c r="M39" t="n">
-        <v>-9.016007439368618</v>
+        <v>-8.206316741778208</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>437.3948488486483</v>
+        <v>437.1716140416877</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>447.8808280113757</v>
+        <v>446.804394053698</v>
       </c>
       <c r="D40" t="n">
-        <v>418.5379794473822</v>
+        <v>416.2526068360041</v>
       </c>
       <c r="E40" t="n">
-        <v>452.1252504439639</v>
+        <v>450.6795960443628</v>
       </c>
       <c r="F40" t="n">
-        <v>447.8808280113757</v>
+        <v>446.804394053698</v>
       </c>
       <c r="G40" t="n">
-        <v>447.8808280113757</v>
+        <v>446.804394053698</v>
       </c>
       <c r="H40" t="n">
-        <v>-12.81803772094068</v>
+        <v>-12.37171140263324</v>
       </c>
       <c r="I40" t="n">
-        <v>-12.81803772094068</v>
+        <v>-12.37171140263324</v>
       </c>
       <c r="J40" t="n">
-        <v>-12.81803772094068</v>
+        <v>-12.37171140263324</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.81803772094068</v>
+        <v>-12.37171140263324</v>
       </c>
       <c r="L40" t="n">
-        <v>-12.81803772094068</v>
+        <v>-12.37171140263324</v>
       </c>
       <c r="M40" t="n">
-        <v>-12.81803772094068</v>
+        <v>-12.37171140263324</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>435.062790290435</v>
+        <v>434.4326826510648</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>449.4521770949661</v>
+        <v>448.3292341011876</v>
       </c>
       <c r="D41" t="n">
-        <v>450.1043447537998</v>
+        <v>447.3494943332696</v>
       </c>
       <c r="E41" t="n">
-        <v>485.2106779857615</v>
+        <v>484.6571068499529</v>
       </c>
       <c r="F41" t="n">
-        <v>449.4521770949661</v>
+        <v>448.3292341011876</v>
       </c>
       <c r="G41" t="n">
-        <v>449.4521770949661</v>
+        <v>448.3292341011876</v>
       </c>
       <c r="H41" t="n">
-        <v>17.6294090044806</v>
+        <v>17.78939680248198</v>
       </c>
       <c r="I41" t="n">
-        <v>17.6294090044806</v>
+        <v>17.78939680248198</v>
       </c>
       <c r="J41" t="n">
-        <v>17.6294090044806</v>
+        <v>17.78939680248198</v>
       </c>
       <c r="K41" t="n">
-        <v>17.6294090044806</v>
+        <v>17.78939680248198</v>
       </c>
       <c r="L41" t="n">
-        <v>17.6294090044806</v>
+        <v>17.78939680248198</v>
       </c>
       <c r="M41" t="n">
-        <v>17.6294090044806</v>
+        <v>17.78939680248198</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>467.0815860994467</v>
+        <v>466.1186309036696</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>450.9733441014742</v>
+        <v>449.8048858297971</v>
       </c>
       <c r="D42" t="n">
-        <v>458.645757374878</v>
+        <v>456.4017831069409</v>
       </c>
       <c r="E42" t="n">
-        <v>491.5802986480364</v>
+        <v>489.7480075976463</v>
       </c>
       <c r="F42" t="n">
-        <v>450.9733441014742</v>
+        <v>449.8048858297971</v>
       </c>
       <c r="G42" t="n">
-        <v>450.9733441014742</v>
+        <v>449.8048858297971</v>
       </c>
       <c r="H42" t="n">
-        <v>23.90219005001864</v>
+        <v>23.80934882802809</v>
       </c>
       <c r="I42" t="n">
-        <v>23.90219005001864</v>
+        <v>23.80934882802809</v>
       </c>
       <c r="J42" t="n">
-        <v>23.90219005001864</v>
+        <v>23.80934882802809</v>
       </c>
       <c r="K42" t="n">
-        <v>23.90219005001864</v>
+        <v>23.80934882802809</v>
       </c>
       <c r="L42" t="n">
-        <v>23.90219005001864</v>
+        <v>23.80934882802809</v>
       </c>
       <c r="M42" t="n">
-        <v>23.90219005001864</v>
+        <v>23.80934882802809</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>474.8755341514928</v>
+        <v>473.6142346578252</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>452.545216674866</v>
+        <v>451.3297259493602</v>
       </c>
       <c r="D43" t="n">
-        <v>436.997448089869</v>
+        <v>434.6753478929097</v>
       </c>
       <c r="E43" t="n">
-        <v>469.4917440487561</v>
+        <v>469.1299156499234</v>
       </c>
       <c r="F43" t="n">
-        <v>452.545216674866</v>
+        <v>451.3297259493602</v>
       </c>
       <c r="G43" t="n">
-        <v>452.545216674866</v>
+        <v>451.3297259493602</v>
       </c>
       <c r="H43" t="n">
-        <v>1.376746412190892</v>
+        <v>-0.09746154930539133</v>
       </c>
       <c r="I43" t="n">
-        <v>1.376746412190892</v>
+        <v>-0.09746154930539133</v>
       </c>
       <c r="J43" t="n">
-        <v>1.376746412190892</v>
+        <v>-0.09746154930539133</v>
       </c>
       <c r="K43" t="n">
-        <v>1.376746412190892</v>
+        <v>-0.09746154930539133</v>
       </c>
       <c r="L43" t="n">
-        <v>1.376746412190892</v>
+        <v>-0.09746154930539133</v>
       </c>
       <c r="M43" t="n">
-        <v>1.376746412190892</v>
+        <v>-0.09746154930539133</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>453.9219630870568</v>
+        <v>451.2322644000548</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>454.0667862197815</v>
+        <v>452.8053776216199</v>
       </c>
       <c r="D44" t="n">
-        <v>435.1653426701261</v>
+        <v>432.0318476647409</v>
       </c>
       <c r="E44" t="n">
-        <v>468.8598206334028</v>
+        <v>468.164751659296</v>
       </c>
       <c r="F44" t="n">
-        <v>454.0667862197815</v>
+        <v>452.8053776216199</v>
       </c>
       <c r="G44" t="n">
-        <v>454.0667862197815</v>
+        <v>452.8053776216199</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.477788003610403</v>
+        <v>-2.845114031772376</v>
       </c>
       <c r="I44" t="n">
-        <v>-2.477788003610403</v>
+        <v>-2.845114031772376</v>
       </c>
       <c r="J44" t="n">
-        <v>-2.477788003610403</v>
+        <v>-2.845114031772376</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.477788003610403</v>
+        <v>-2.845114031772376</v>
       </c>
       <c r="L44" t="n">
-        <v>-2.477788003610403</v>
+        <v>-2.845114031772376</v>
       </c>
       <c r="M44" t="n">
-        <v>-2.477788003610403</v>
+        <v>-2.845114031772376</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>451.5889982161711</v>
+        <v>449.9602635898476</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>455.6390747495275</v>
+        <v>454.330217682955</v>
       </c>
       <c r="D45" t="n">
-        <v>440.1446521992938</v>
+        <v>437.1778217488684</v>
       </c>
       <c r="E45" t="n">
-        <v>472.7635973084107</v>
+        <v>471.1897726654934</v>
       </c>
       <c r="F45" t="n">
-        <v>455.6390747495275</v>
+        <v>454.330217682955</v>
       </c>
       <c r="G45" t="n">
-        <v>455.6390747495275</v>
+        <v>454.330217682955</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2559171162287395</v>
+        <v>0.1832720104843354</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2559171162287395</v>
+        <v>0.1832720104843354</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2559171162287395</v>
+        <v>0.1832720104843354</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2559171162287395</v>
+        <v>0.1832720104843354</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2559171162287395</v>
+        <v>0.1832720104843354</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2559171162287395</v>
+        <v>0.1832720104843354</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>455.8949918657563</v>
+        <v>454.5134896934393</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>457.2113632808106</v>
+        <v>455.8550577545601</v>
       </c>
       <c r="D46" t="n">
-        <v>462.8753441122176</v>
+        <v>461.4897415873521</v>
       </c>
       <c r="E46" t="n">
-        <v>497.1586544855817</v>
+        <v>496.0625417239495</v>
       </c>
       <c r="F46" t="n">
-        <v>457.2113632808106</v>
+        <v>455.8550577545601</v>
       </c>
       <c r="G46" t="n">
-        <v>457.2113632808106</v>
+        <v>455.8550577545601</v>
       </c>
       <c r="H46" t="n">
-        <v>22.03954909775679</v>
+        <v>22.48624794646927</v>
       </c>
       <c r="I46" t="n">
-        <v>22.03954909775679</v>
+        <v>22.48624794646927</v>
       </c>
       <c r="J46" t="n">
-        <v>22.03954909775679</v>
+        <v>22.48624794646927</v>
       </c>
       <c r="K46" t="n">
-        <v>22.03954909775679</v>
+        <v>22.48624794646927</v>
       </c>
       <c r="L46" t="n">
-        <v>22.03954909775679</v>
+        <v>22.48624794646927</v>
       </c>
       <c r="M46" t="n">
-        <v>22.03954909775679</v>
+        <v>22.48624794646927</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>479.2509123785674</v>
+        <v>478.3413057010294</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>458.7329328272135</v>
+        <v>457.3307094367586</v>
       </c>
       <c r="D47" t="n">
-        <v>445.4599598938912</v>
+        <v>445.9221044582253</v>
       </c>
       <c r="E47" t="n">
-        <v>479.2081015237002</v>
+        <v>478.8879295131368</v>
       </c>
       <c r="F47" t="n">
-        <v>458.7329328272135</v>
+        <v>457.3307094367586</v>
       </c>
       <c r="G47" t="n">
-        <v>458.7329328272135</v>
+        <v>457.3307094367586</v>
       </c>
       <c r="H47" t="n">
-        <v>4.254228513781335</v>
+        <v>5.128744055858351</v>
       </c>
       <c r="I47" t="n">
-        <v>4.254228513781335</v>
+        <v>5.128744055858351</v>
       </c>
       <c r="J47" t="n">
-        <v>4.254228513781335</v>
+        <v>5.128744055858351</v>
       </c>
       <c r="K47" t="n">
-        <v>4.254228513781335</v>
+        <v>5.128744055858351</v>
       </c>
       <c r="L47" t="n">
-        <v>4.254228513781335</v>
+        <v>5.128744055858351</v>
       </c>
       <c r="M47" t="n">
-        <v>4.254228513781335</v>
+        <v>5.128744055858351</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>462.9871613409949</v>
+        <v>462.459453492617</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>460.3052213568585</v>
+        <v>458.8553908233498</v>
       </c>
       <c r="D48" t="n">
-        <v>435.0035742955743</v>
+        <v>434.2080255277289</v>
       </c>
       <c r="E48" t="n">
-        <v>468.2733241455662</v>
+        <v>469.3214790939116</v>
       </c>
       <c r="F48" t="n">
-        <v>460.3052213568585</v>
+        <v>458.8553908233498</v>
       </c>
       <c r="G48" t="n">
-        <v>460.3052213568585</v>
+        <v>458.8553908233498</v>
       </c>
       <c r="H48" t="n">
-        <v>-8.551269298205893</v>
+        <v>-7.360964035089307</v>
       </c>
       <c r="I48" t="n">
-        <v>-8.551269298205893</v>
+        <v>-7.360964035089307</v>
       </c>
       <c r="J48" t="n">
-        <v>-8.551269298205893</v>
+        <v>-7.360964035089307</v>
       </c>
       <c r="K48" t="n">
-        <v>-8.551269298205893</v>
+        <v>-7.360964035089307</v>
       </c>
       <c r="L48" t="n">
-        <v>-8.551269298205893</v>
+        <v>-7.360964035089307</v>
       </c>
       <c r="M48" t="n">
-        <v>-8.551269298205893</v>
+        <v>-7.360964035089307</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>451.7539520586525</v>
+        <v>451.4944267882605</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>461.8267909016761</v>
+        <v>460.3308889394059</v>
       </c>
       <c r="D49" t="n">
-        <v>447.3104305565113</v>
+        <v>446.3421765652874</v>
       </c>
       <c r="E49" t="n">
-        <v>480.124125804934</v>
+        <v>481.2663837940614</v>
       </c>
       <c r="F49" t="n">
-        <v>461.8267909016761</v>
+        <v>460.3308889394059</v>
       </c>
       <c r="G49" t="n">
-        <v>461.8267909016761</v>
+        <v>460.3308889394059</v>
       </c>
       <c r="H49" t="n">
-        <v>2.294243133889724</v>
+        <v>3.892242260887951</v>
       </c>
       <c r="I49" t="n">
-        <v>2.294243133889724</v>
+        <v>3.892242260887951</v>
       </c>
       <c r="J49" t="n">
-        <v>2.294243133889724</v>
+        <v>3.892242260887951</v>
       </c>
       <c r="K49" t="n">
-        <v>2.294243133889724</v>
+        <v>3.892242260887951</v>
       </c>
       <c r="L49" t="n">
-        <v>2.294243133889724</v>
+        <v>3.892242260887951</v>
       </c>
       <c r="M49" t="n">
-        <v>2.294243133889724</v>
+        <v>3.892242260887951</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>464.1210340355658</v>
+        <v>464.2231312002938</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>463.3990794331024</v>
+        <v>461.8551809811431</v>
       </c>
       <c r="D50" t="n">
-        <v>462.3460743808737</v>
+        <v>459.8603861837372</v>
       </c>
       <c r="E50" t="n">
-        <v>496.0750109530591</v>
+        <v>494.9379902979736</v>
       </c>
       <c r="F50" t="n">
-        <v>463.3990794331024</v>
+        <v>461.8551809811431</v>
       </c>
       <c r="G50" t="n">
-        <v>463.3990794331024</v>
+        <v>461.8551809811431</v>
       </c>
       <c r="H50" t="n">
-        <v>15.12693189568665</v>
+        <v>16.01405457623133</v>
       </c>
       <c r="I50" t="n">
-        <v>15.12693189568665</v>
+        <v>16.01405457623133</v>
       </c>
       <c r="J50" t="n">
-        <v>15.12693189568665</v>
+        <v>16.01405457623133</v>
       </c>
       <c r="K50" t="n">
-        <v>15.12693189568665</v>
+        <v>16.01405457623133</v>
       </c>
       <c r="L50" t="n">
-        <v>15.12693189568665</v>
+        <v>16.01405457623133</v>
       </c>
       <c r="M50" t="n">
-        <v>15.12693189568665</v>
+        <v>16.01405457623133</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>478.5260113287891</v>
+        <v>477.8692355573745</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>464.9713679645287</v>
+        <v>463.3794730228804</v>
       </c>
       <c r="D51" t="n">
-        <v>469.8302666586538</v>
+        <v>467.2730786659513</v>
       </c>
       <c r="E51" t="n">
-        <v>502.0075031417417</v>
+        <v>502.5524316678301</v>
       </c>
       <c r="F51" t="n">
-        <v>464.9713679645287</v>
+        <v>463.3794730228804</v>
       </c>
       <c r="G51" t="n">
-        <v>464.9713679645287</v>
+        <v>463.3794730228804</v>
       </c>
       <c r="H51" t="n">
-        <v>20.34562849722374</v>
+        <v>21.185121308303</v>
       </c>
       <c r="I51" t="n">
-        <v>20.34562849722374</v>
+        <v>21.185121308303</v>
       </c>
       <c r="J51" t="n">
-        <v>20.34562849722374</v>
+        <v>21.185121308303</v>
       </c>
       <c r="K51" t="n">
-        <v>20.34562849722374</v>
+        <v>21.185121308303</v>
       </c>
       <c r="L51" t="n">
-        <v>20.34562849722374</v>
+        <v>21.185121308303</v>
       </c>
       <c r="M51" t="n">
-        <v>20.34562849722374</v>
+        <v>21.185121308303</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>485.3169964617525</v>
+        <v>484.5645943311834</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>466.3914995395398</v>
+        <v>464.7543148163133</v>
       </c>
       <c r="D52" t="n">
-        <v>450.6747292130477</v>
+        <v>448.518700918755</v>
       </c>
       <c r="E52" t="n">
-        <v>483.4000144421479</v>
+        <v>483.6156712723705</v>
       </c>
       <c r="F52" t="n">
-        <v>466.3914995395398</v>
+        <v>464.7543148163133</v>
       </c>
       <c r="G52" t="n">
-        <v>466.3914995395398</v>
+        <v>464.7543148163133</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7334845733359877</v>
+        <v>1.455257387498803</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7334845733359877</v>
+        <v>1.455257387498803</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7334845733359877</v>
+        <v>1.455257387498803</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7334845733359877</v>
+        <v>1.455257387498803</v>
       </c>
       <c r="L52" t="n">
-        <v>0.7334845733359877</v>
+        <v>1.455257387498803</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7334845733359877</v>
+        <v>1.455257387498803</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>467.1249841128758</v>
+        <v>466.2095722038121</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>467.9637880690163</v>
+        <v>466.2764610876141</v>
       </c>
       <c r="D53" t="n">
-        <v>468.5062065538877</v>
+        <v>467.8500485827109</v>
       </c>
       <c r="E53" t="n">
-        <v>503.210234988037</v>
+        <v>501.6154446059124</v>
       </c>
       <c r="F53" t="n">
-        <v>467.9637880690163</v>
+        <v>466.2764610876141</v>
       </c>
       <c r="G53" t="n">
-        <v>467.9637880690163</v>
+        <v>466.2764610876141</v>
       </c>
       <c r="H53" t="n">
-        <v>17.6907447797176</v>
+        <v>18.34894210986001</v>
       </c>
       <c r="I53" t="n">
-        <v>17.6907447797176</v>
+        <v>18.34894210986001</v>
       </c>
       <c r="J53" t="n">
-        <v>17.6907447797176</v>
+        <v>18.34894210986001</v>
       </c>
       <c r="K53" t="n">
-        <v>17.6907447797176</v>
+        <v>18.34894210986001</v>
       </c>
       <c r="L53" t="n">
-        <v>17.6907447797176</v>
+        <v>18.34894210986001</v>
       </c>
       <c r="M53" t="n">
-        <v>17.6907447797176</v>
+        <v>18.34894210986001</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>485.6545328487339</v>
+        <v>484.625403197474</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>469.4851488841744</v>
+        <v>467.7412700745314</v>
       </c>
       <c r="D54" t="n">
-        <v>468.9824714324051</v>
+        <v>466.184965816451</v>
       </c>
       <c r="E54" t="n">
-        <v>501.532467418003</v>
+        <v>500.3219936428364</v>
       </c>
       <c r="F54" t="n">
-        <v>469.4851488841744</v>
+        <v>467.7412700745314</v>
       </c>
       <c r="G54" t="n">
-        <v>469.4851488841744</v>
+        <v>467.7412700745314</v>
       </c>
       <c r="H54" t="n">
-        <v>15.24828726250382</v>
+        <v>15.87775562431299</v>
       </c>
       <c r="I54" t="n">
-        <v>15.24828726250382</v>
+        <v>15.87775562431299</v>
       </c>
       <c r="J54" t="n">
-        <v>15.24828726250382</v>
+        <v>15.87775562431299</v>
       </c>
       <c r="K54" t="n">
-        <v>15.24828726250382</v>
+        <v>15.87775562431299</v>
       </c>
       <c r="L54" t="n">
-        <v>15.24828726250382</v>
+        <v>15.87775562431299</v>
       </c>
       <c r="M54" t="n">
-        <v>15.24828726250382</v>
+        <v>15.87775562431299</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>484.7334361466782</v>
+        <v>483.6190256988444</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>471.0572217265045</v>
+        <v>469.2549060276794</v>
       </c>
       <c r="D55" t="n">
-        <v>457.3964530312546</v>
+        <v>450.365365468961</v>
       </c>
       <c r="E55" t="n">
-        <v>490.0143740153309</v>
+        <v>484.9748600401348</v>
       </c>
       <c r="F55" t="n">
-        <v>471.0572217265045</v>
+        <v>469.2549060276794</v>
       </c>
       <c r="G55" t="n">
-        <v>471.0572217265045</v>
+        <v>469.2549060276794</v>
       </c>
       <c r="H55" t="n">
-        <v>2.67092860073727</v>
+        <v>-1.330220562738889</v>
       </c>
       <c r="I55" t="n">
-        <v>2.67092860073727</v>
+        <v>-1.330220562738889</v>
       </c>
       <c r="J55" t="n">
-        <v>2.67092860073727</v>
+        <v>-1.330220562738889</v>
       </c>
       <c r="K55" t="n">
-        <v>2.67092860073727</v>
+        <v>-1.330220562738889</v>
       </c>
       <c r="L55" t="n">
-        <v>2.67092860073727</v>
+        <v>-1.330220562738889</v>
       </c>
       <c r="M55" t="n">
-        <v>2.67092860073727</v>
+        <v>-1.330220562738889</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>473.7281503272418</v>
+        <v>467.9246854649405</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>472.5785825416625</v>
+        <v>470.7197150145968</v>
       </c>
       <c r="D56" t="n">
-        <v>456.8054950329873</v>
+        <v>453.9357179210249</v>
       </c>
       <c r="E56" t="n">
-        <v>489.8663240829424</v>
+        <v>488.3470612628975</v>
       </c>
       <c r="F56" t="n">
-        <v>472.5785825416625</v>
+        <v>470.7197150145968</v>
       </c>
       <c r="G56" t="n">
-        <v>472.5785825416625</v>
+        <v>470.7197150145968</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4194991643349429</v>
+        <v>0.835287080109672</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4194991643349429</v>
+        <v>0.835287080109672</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4194991643349429</v>
+        <v>0.835287080109672</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4194991643349429</v>
+        <v>0.835287080109672</v>
       </c>
       <c r="L56" t="n">
-        <v>0.4194991643349429</v>
+        <v>0.835287080109672</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4194991643349429</v>
+        <v>0.835287080109672</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>472.9980817059974</v>
+        <v>471.5550020947065</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>474.1506553839926</v>
+        <v>472.2333509677447</v>
       </c>
       <c r="D57" t="n">
-        <v>462.7782171167041</v>
+        <v>461.8797294906504</v>
       </c>
       <c r="E57" t="n">
-        <v>496.2453336594447</v>
+        <v>495.9144533144079</v>
       </c>
       <c r="F57" t="n">
-        <v>474.1506553839926</v>
+        <v>472.2333509677447</v>
       </c>
       <c r="G57" t="n">
-        <v>474.1506553839926</v>
+        <v>472.2333509677447</v>
       </c>
       <c r="H57" t="n">
-        <v>5.483864015865879</v>
+        <v>6.034776770394377</v>
       </c>
       <c r="I57" t="n">
-        <v>5.483864015865879</v>
+        <v>6.034776770394377</v>
       </c>
       <c r="J57" t="n">
-        <v>5.483864015865879</v>
+        <v>6.034776770394377</v>
       </c>
       <c r="K57" t="n">
-        <v>5.483864015865879</v>
+        <v>6.034776770394377</v>
       </c>
       <c r="L57" t="n">
-        <v>5.483864015865879</v>
+        <v>6.034776770394377</v>
       </c>
       <c r="M57" t="n">
-        <v>5.483864015865879</v>
+        <v>6.034776770394377</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>479.6345193998584</v>
+        <v>478.2681277381391</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>475.7227282263226</v>
+        <v>473.7469869208927</v>
       </c>
       <c r="D58" t="n">
-        <v>472.7314197848817</v>
+        <v>470.9799629796236</v>
       </c>
       <c r="E58" t="n">
-        <v>506.646502288595</v>
+        <v>505.9229662616216</v>
       </c>
       <c r="F58" t="n">
-        <v>475.7227282263226</v>
+        <v>473.7469869208927</v>
       </c>
       <c r="G58" t="n">
-        <v>475.7227282263226</v>
+        <v>473.7469869208927</v>
       </c>
       <c r="H58" t="n">
-        <v>13.89621705646173</v>
+        <v>14.63515005092108</v>
       </c>
       <c r="I58" t="n">
-        <v>13.89621705646173</v>
+        <v>14.63515005092108</v>
       </c>
       <c r="J58" t="n">
-        <v>13.89621705646173</v>
+        <v>14.63515005092108</v>
       </c>
       <c r="K58" t="n">
-        <v>13.89621705646173</v>
+        <v>14.63515005092108</v>
       </c>
       <c r="L58" t="n">
-        <v>13.89621705646173</v>
+        <v>14.63515005092108</v>
       </c>
       <c r="M58" t="n">
-        <v>13.89621705646173</v>
+        <v>14.63515005092108</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>489.6189452827844</v>
+        <v>488.3821369718138</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>477.2440890414807</v>
+        <v>475.2117959078101</v>
       </c>
       <c r="D59" t="n">
-        <v>462.2872258547198</v>
+        <v>458.8975407856946</v>
       </c>
       <c r="E59" t="n">
-        <v>494.8859982584141</v>
+        <v>494.2664697521074</v>
       </c>
       <c r="F59" t="n">
-        <v>477.2440890414807</v>
+        <v>475.2117959078101</v>
       </c>
       <c r="G59" t="n">
-        <v>477.2440890414807</v>
+        <v>475.2117959078101</v>
       </c>
       <c r="H59" t="n">
-        <v>1.308197078822257</v>
+        <v>2.209215033785593</v>
       </c>
       <c r="I59" t="n">
-        <v>1.308197078822257</v>
+        <v>2.209215033785593</v>
       </c>
       <c r="J59" t="n">
-        <v>1.308197078822257</v>
+        <v>2.209215033785593</v>
       </c>
       <c r="K59" t="n">
-        <v>1.308197078822257</v>
+        <v>2.209215033785593</v>
       </c>
       <c r="L59" t="n">
-        <v>1.308197078822257</v>
+        <v>2.209215033785593</v>
       </c>
       <c r="M59" t="n">
-        <v>1.308197078822257</v>
+        <v>2.209215033785593</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>478.5522861203029</v>
+        <v>477.4210109415957</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>478.8161618838107</v>
+        <v>476.7254318609581</v>
       </c>
       <c r="D60" t="n">
-        <v>463.0236419762676</v>
+        <v>461.3777469407177</v>
       </c>
       <c r="E60" t="n">
-        <v>495.2021120009151</v>
+        <v>495.8188643667855</v>
       </c>
       <c r="F60" t="n">
-        <v>478.8161618838107</v>
+        <v>476.7254318609581</v>
       </c>
       <c r="G60" t="n">
-        <v>478.8161618838107</v>
+        <v>476.7254318609581</v>
       </c>
       <c r="H60" t="n">
-        <v>1.037155975268958</v>
+        <v>2.057472843838129</v>
       </c>
       <c r="I60" t="n">
-        <v>1.037155975268958</v>
+        <v>2.057472843838129</v>
       </c>
       <c r="J60" t="n">
-        <v>1.037155975268958</v>
+        <v>2.057472843838129</v>
       </c>
       <c r="K60" t="n">
-        <v>1.037155975268958</v>
+        <v>2.057472843838129</v>
       </c>
       <c r="L60" t="n">
-        <v>1.037155975268958</v>
+        <v>2.057472843838129</v>
       </c>
       <c r="M60" t="n">
-        <v>1.037155975268958</v>
+        <v>2.057472843838129</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>479.8533178590797</v>
+        <v>478.7829047047962</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>480.3375226989688</v>
+        <v>478.1902408478754</v>
       </c>
       <c r="D61" t="n">
-        <v>465.076875084156</v>
+        <v>463.3648035354271</v>
       </c>
       <c r="E61" t="n">
-        <v>499.9548528164457</v>
+        <v>498.0087260148599</v>
       </c>
       <c r="F61" t="n">
-        <v>480.3375226989688</v>
+        <v>478.1902408478754</v>
       </c>
       <c r="G61" t="n">
-        <v>480.3375226989688</v>
+        <v>478.1902408478754</v>
       </c>
       <c r="H61" t="n">
-        <v>2.073188477685172</v>
+        <v>3.235375084596383</v>
       </c>
       <c r="I61" t="n">
-        <v>2.073188477685172</v>
+        <v>3.235375084596383</v>
       </c>
       <c r="J61" t="n">
-        <v>2.073188477685172</v>
+        <v>3.235375084596383</v>
       </c>
       <c r="K61" t="n">
-        <v>2.073188477685172</v>
+        <v>3.235375084596383</v>
       </c>
       <c r="L61" t="n">
-        <v>2.073188477685172</v>
+        <v>3.235375084596383</v>
       </c>
       <c r="M61" t="n">
-        <v>2.073188477685172</v>
+        <v>3.235375084596383</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>482.4107111766539</v>
+        <v>481.4256159324718</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>481.9095955412988</v>
+        <v>479.7038768010234</v>
       </c>
       <c r="D62" t="n">
-        <v>477.6249033838772</v>
+        <v>476.8111601433606</v>
       </c>
       <c r="E62" t="n">
-        <v>511.0481751102927</v>
+        <v>509.5807662079037</v>
       </c>
       <c r="F62" t="n">
-        <v>481.9095955412988</v>
+        <v>479.7038768010234</v>
       </c>
       <c r="G62" t="n">
-        <v>481.9095955412988</v>
+        <v>479.7038768010234</v>
       </c>
       <c r="H62" t="n">
-        <v>12.08190478012954</v>
+        <v>12.86725224549998</v>
       </c>
       <c r="I62" t="n">
-        <v>12.08190478012954</v>
+        <v>12.86725224549998</v>
       </c>
       <c r="J62" t="n">
-        <v>12.08190478012954</v>
+        <v>12.86725224549998</v>
       </c>
       <c r="K62" t="n">
-        <v>12.08190478012954</v>
+        <v>12.86725224549998</v>
       </c>
       <c r="L62" t="n">
-        <v>12.08190478012954</v>
+        <v>12.86725224549998</v>
       </c>
       <c r="M62" t="n">
-        <v>12.08190478012954</v>
+        <v>12.86725224549998</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>493.9915003214283</v>
+        <v>492.5711290465234</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>483.4816683836289</v>
+        <v>481.2175127541714</v>
       </c>
       <c r="D63" t="n">
-        <v>476.3467715087078</v>
+        <v>475.0670546378508</v>
       </c>
       <c r="E63" t="n">
-        <v>509.9935212956179</v>
+        <v>511.2328287743902</v>
       </c>
       <c r="F63" t="n">
-        <v>483.4816683836289</v>
+        <v>481.2175127541714</v>
       </c>
       <c r="G63" t="n">
-        <v>483.4816683836289</v>
+        <v>481.2175127541714</v>
       </c>
       <c r="H63" t="n">
-        <v>10.37240223825697</v>
+        <v>11.19131273105979</v>
       </c>
       <c r="I63" t="n">
-        <v>10.37240223825697</v>
+        <v>11.19131273105979</v>
       </c>
       <c r="J63" t="n">
-        <v>10.37240223825697</v>
+        <v>11.19131273105979</v>
       </c>
       <c r="K63" t="n">
-        <v>10.37240223825697</v>
+        <v>11.19131273105979</v>
       </c>
       <c r="L63" t="n">
-        <v>10.37240223825697</v>
+        <v>11.19131273105979</v>
       </c>
       <c r="M63" t="n">
-        <v>10.37240223825697</v>
+        <v>11.19131273105979</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>493.8540706218859</v>
+        <v>492.4088254852311</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>484.901605144443</v>
+        <v>482.5846678086276</v>
       </c>
       <c r="D64" t="n">
-        <v>482.3197940231833</v>
+        <v>480.6701359543292</v>
       </c>
       <c r="E64" t="n">
-        <v>516.3044933216073</v>
+        <v>514.7954337518742</v>
       </c>
       <c r="F64" t="n">
-        <v>484.901605144443</v>
+        <v>482.5846678086276</v>
       </c>
       <c r="G64" t="n">
-        <v>484.901605144443</v>
+        <v>482.5846678086276</v>
       </c>
       <c r="H64" t="n">
-        <v>14.36198303575293</v>
+        <v>15.36543894896949</v>
       </c>
       <c r="I64" t="n">
-        <v>14.36198303575293</v>
+        <v>15.36543894896949</v>
       </c>
       <c r="J64" t="n">
-        <v>14.36198303575293</v>
+        <v>15.36543894896949</v>
       </c>
       <c r="K64" t="n">
-        <v>14.36198303575293</v>
+        <v>15.36543894896949</v>
       </c>
       <c r="L64" t="n">
-        <v>14.36198303575293</v>
+        <v>15.36543894896949</v>
       </c>
       <c r="M64" t="n">
-        <v>14.36198303575293</v>
+        <v>15.36543894896949</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>499.2635881801959</v>
+        <v>497.9501067575971</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>486.4736779867731</v>
+        <v>484.0983037617756</v>
       </c>
       <c r="D65" t="n">
-        <v>486.7658312449399</v>
+        <v>484.5675204231687</v>
       </c>
       <c r="E65" t="n">
-        <v>520.7559860741466</v>
+        <v>519.5873753139507</v>
       </c>
       <c r="F65" t="n">
-        <v>486.4736779867731</v>
+        <v>484.0983037617756</v>
       </c>
       <c r="G65" t="n">
-        <v>486.4736779867731</v>
+        <v>484.0983037617756</v>
       </c>
       <c r="H65" t="n">
-        <v>17.48459049231857</v>
+        <v>18.63613555792428</v>
       </c>
       <c r="I65" t="n">
-        <v>17.48459049231857</v>
+        <v>18.63613555792428</v>
       </c>
       <c r="J65" t="n">
-        <v>17.48459049231857</v>
+        <v>18.63613555792428</v>
       </c>
       <c r="K65" t="n">
-        <v>17.48459049231857</v>
+        <v>18.63613555792428</v>
       </c>
       <c r="L65" t="n">
-        <v>17.48459049231857</v>
+        <v>18.63613555792428</v>
       </c>
       <c r="M65" t="n">
-        <v>17.48459049231857</v>
+        <v>18.63613555792428</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>503.9582684790917</v>
+        <v>502.7344393196998</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>487.9950388019311</v>
+        <v>485.5631127486929</v>
       </c>
       <c r="D66" t="n">
-        <v>478.2029674207163</v>
+        <v>476.2660933705825</v>
       </c>
       <c r="E66" t="n">
-        <v>511.6197561762075</v>
+        <v>511.716045246709</v>
       </c>
       <c r="F66" t="n">
-        <v>487.9950388019311</v>
+        <v>485.5631127486929</v>
       </c>
       <c r="G66" t="n">
-        <v>487.9950388019311</v>
+        <v>485.5631127486929</v>
       </c>
       <c r="H66" t="n">
-        <v>6.589160626818718</v>
+        <v>7.899123636485244</v>
       </c>
       <c r="I66" t="n">
-        <v>6.589160626818718</v>
+        <v>7.899123636485244</v>
       </c>
       <c r="J66" t="n">
-        <v>6.589160626818718</v>
+        <v>7.899123636485244</v>
       </c>
       <c r="K66" t="n">
-        <v>6.589160626818718</v>
+        <v>7.899123636485244</v>
       </c>
       <c r="L66" t="n">
-        <v>6.589160626818718</v>
+        <v>7.899123636485244</v>
       </c>
       <c r="M66" t="n">
-        <v>6.589160626818718</v>
+        <v>7.899123636485244</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>494.5841994287499</v>
+        <v>493.4622363851781</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>489.5671116442612</v>
+        <v>487.0767487018409</v>
       </c>
       <c r="D67" t="n">
-        <v>477.5648320554955</v>
+        <v>466.9217347853564</v>
       </c>
       <c r="E67" t="n">
-        <v>510.8219495683369</v>
+        <v>501.6315035171497</v>
       </c>
       <c r="F67" t="n">
-        <v>489.5671043287529</v>
+        <v>487.0767487018409</v>
       </c>
       <c r="G67" t="n">
-        <v>489.5671212333232</v>
+        <v>487.0767487018409</v>
       </c>
       <c r="H67" t="n">
-        <v>4.125788957527321</v>
+        <v>-2.401054943771375</v>
       </c>
       <c r="I67" t="n">
-        <v>4.125788957527321</v>
+        <v>-2.401054943771375</v>
       </c>
       <c r="J67" t="n">
-        <v>4.125788957527321</v>
+        <v>-2.401054943771375</v>
       </c>
       <c r="K67" t="n">
-        <v>4.125788957527321</v>
+        <v>-2.401054943771375</v>
       </c>
       <c r="L67" t="n">
-        <v>4.125788957527321</v>
+        <v>-2.401054943771375</v>
       </c>
       <c r="M67" t="n">
-        <v>4.125788957527321</v>
+        <v>-2.401054943771375</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>493.6929006017885</v>
+        <v>484.6756937580695</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>491.0884724594192</v>
+        <v>488.5415576887582</v>
       </c>
       <c r="D68" t="n">
-        <v>479.1006548762617</v>
+        <v>475.3625751819966</v>
       </c>
       <c r="E68" t="n">
-        <v>510.8306695391087</v>
+        <v>510.2471458328705</v>
       </c>
       <c r="F68" t="n">
-        <v>491.0884331549699</v>
+        <v>488.5414888115022</v>
       </c>
       <c r="G68" t="n">
-        <v>491.088526198739</v>
+        <v>488.5416457192275</v>
       </c>
       <c r="H68" t="n">
-        <v>3.361986032166999</v>
+        <v>4.602993759146504</v>
       </c>
       <c r="I68" t="n">
-        <v>3.361986032166999</v>
+        <v>4.602993759146504</v>
       </c>
       <c r="J68" t="n">
-        <v>3.361986032166999</v>
+        <v>4.602993759146504</v>
       </c>
       <c r="K68" t="n">
-        <v>3.361986032166999</v>
+        <v>4.602993759146504</v>
       </c>
       <c r="L68" t="n">
-        <v>3.361986032166999</v>
+        <v>4.602993759146504</v>
       </c>
       <c r="M68" t="n">
-        <v>3.361986032166999</v>
+        <v>4.602993759146504</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>494.4504584915862</v>
+        <v>493.1445514479047</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>492.6605453017492</v>
+        <v>490.0551936419062</v>
       </c>
       <c r="D69" t="n">
-        <v>485.5795464035249</v>
+        <v>484.1921115288495</v>
       </c>
       <c r="E69" t="n">
-        <v>518.0740190814191</v>
+        <v>519.2006398966884</v>
       </c>
       <c r="F69" t="n">
-        <v>492.6604629155493</v>
+        <v>490.0545771013383</v>
       </c>
       <c r="G69" t="n">
-        <v>492.6606666128846</v>
+        <v>490.0557934134682</v>
       </c>
       <c r="H69" t="n">
-        <v>10.55688158620618</v>
+        <v>11.73579202410441</v>
       </c>
       <c r="I69" t="n">
-        <v>10.55688158620618</v>
+        <v>11.73579202410441</v>
       </c>
       <c r="J69" t="n">
-        <v>10.55688158620618</v>
+        <v>11.73579202410441</v>
       </c>
       <c r="K69" t="n">
-        <v>10.55688158620618</v>
+        <v>11.73579202410441</v>
       </c>
       <c r="L69" t="n">
-        <v>10.55688158620618</v>
+        <v>11.73579202410441</v>
       </c>
       <c r="M69" t="n">
-        <v>10.55688158620618</v>
+        <v>11.73579202410441</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>503.2174268879554</v>
+        <v>501.7909856660106</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>494.2326181440793</v>
+        <v>491.5688295950542</v>
       </c>
       <c r="D70" t="n">
-        <v>482.8719494921917</v>
+        <v>480.1348253872878</v>
       </c>
       <c r="E70" t="n">
-        <v>516.7448942098157</v>
+        <v>515.7655407292468</v>
       </c>
       <c r="F70" t="n">
-        <v>494.2324679535626</v>
+        <v>491.5674597700551</v>
       </c>
       <c r="G70" t="n">
-        <v>494.2328177849569</v>
+        <v>491.57012172718</v>
       </c>
       <c r="H70" t="n">
-        <v>5.656059406254145</v>
+        <v>6.677756781092385</v>
       </c>
       <c r="I70" t="n">
-        <v>5.656059406254145</v>
+        <v>6.677756781092385</v>
       </c>
       <c r="J70" t="n">
-        <v>5.656059406254145</v>
+        <v>6.677756781092385</v>
       </c>
       <c r="K70" t="n">
-        <v>5.656059406254145</v>
+        <v>6.677756781092385</v>
       </c>
       <c r="L70" t="n">
-        <v>5.656059406254145</v>
+        <v>6.677756781092385</v>
       </c>
       <c r="M70" t="n">
-        <v>5.656059406254145</v>
+        <v>6.677756781092385</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>499.8886775503334</v>
+        <v>498.2465863761466</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>495.7539789592374</v>
+        <v>493.0336385819716</v>
       </c>
       <c r="D71" t="n">
-        <v>477.2707704311684</v>
+        <v>475.8226624079835</v>
       </c>
       <c r="E71" t="n">
-        <v>511.2057376864768</v>
+        <v>511.3583453856373</v>
       </c>
       <c r="F71" t="n">
-        <v>495.753754980307</v>
+        <v>493.0311129442877</v>
       </c>
       <c r="G71" t="n">
-        <v>495.7542578972477</v>
+        <v>493.035853316708</v>
       </c>
       <c r="H71" t="n">
-        <v>-1.414312020006482</v>
+        <v>-0.4998969206469684</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.414312020006482</v>
+        <v>-0.4998969206469684</v>
       </c>
       <c r="J71" t="n">
-        <v>-1.414312020006482</v>
+        <v>-0.4998969206469684</v>
       </c>
       <c r="K71" t="n">
-        <v>-1.414312020006482</v>
+        <v>-0.4998969206469684</v>
       </c>
       <c r="L71" t="n">
-        <v>-1.414312020006482</v>
+        <v>-0.4998969206469684</v>
       </c>
       <c r="M71" t="n">
-        <v>-1.414312020006482</v>
+        <v>-0.4998969206469684</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>494.3396669392309</v>
+        <v>492.5337416613246</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>497.3260518015674</v>
+        <v>494.5472745351195</v>
       </c>
       <c r="D72" t="n">
-        <v>491.121708670002</v>
+        <v>488.8898390426975</v>
       </c>
       <c r="E72" t="n">
-        <v>524.6628392260999</v>
+        <v>521.9496549299121</v>
       </c>
       <c r="F72" t="n">
-        <v>497.3257408498736</v>
+        <v>494.5434472223493</v>
       </c>
       <c r="G72" t="n">
-        <v>497.3264250318162</v>
+        <v>494.5508198463332</v>
       </c>
       <c r="H72" t="n">
-        <v>10.67883352970089</v>
+        <v>11.51845683053313</v>
       </c>
       <c r="I72" t="n">
-        <v>10.67883352970089</v>
+        <v>11.51845683053313</v>
       </c>
       <c r="J72" t="n">
-        <v>10.67883352970089</v>
+        <v>11.51845683053313</v>
       </c>
       <c r="K72" t="n">
-        <v>10.67883352970089</v>
+        <v>11.51845683053313</v>
       </c>
       <c r="L72" t="n">
-        <v>10.67883352970089</v>
+        <v>11.51845683053313</v>
       </c>
       <c r="M72" t="n">
-        <v>10.67883352970089</v>
+        <v>11.51845683053313</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>508.0048853312683</v>
+        <v>506.0657313656527</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>498.8474126167255</v>
+        <v>496.0120835220369</v>
       </c>
       <c r="D73" t="n">
-        <v>483.6838115514466</v>
+        <v>479.7544666345423</v>
       </c>
       <c r="E73" t="n">
-        <v>516.5460107592388</v>
+        <v>516.2644172747141</v>
       </c>
       <c r="F73" t="n">
-        <v>498.8470144327699</v>
+        <v>496.0070566184115</v>
       </c>
       <c r="G73" t="n">
-        <v>498.8479262634571</v>
+        <v>496.0170474250854</v>
       </c>
       <c r="H73" t="n">
-        <v>1.665512719025017</v>
+        <v>2.393361806977462</v>
       </c>
       <c r="I73" t="n">
-        <v>1.665512719025017</v>
+        <v>2.393361806977462</v>
       </c>
       <c r="J73" t="n">
-        <v>1.665512719025017</v>
+        <v>2.393361806977462</v>
       </c>
       <c r="K73" t="n">
-        <v>1.665512719025017</v>
+        <v>2.393361806977462</v>
       </c>
       <c r="L73" t="n">
-        <v>1.665512719025017</v>
+        <v>2.393361806977462</v>
       </c>
       <c r="M73" t="n">
-        <v>1.665512719025017</v>
+        <v>2.393361806977462</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>500.5129253357505</v>
+        <v>498.4054453290144</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>500.4194854590555</v>
+        <v>497.5257194751849</v>
       </c>
       <c r="D74" t="n">
-        <v>493.2685106363937</v>
+        <v>488.8122697639523</v>
       </c>
       <c r="E74" t="n">
-        <v>525.5073355997628</v>
+        <v>523.1314686584429</v>
       </c>
       <c r="F74" t="n">
-        <v>500.4189879889962</v>
+        <v>497.5194269577501</v>
       </c>
       <c r="G74" t="n">
-        <v>500.42013435217</v>
+        <v>497.5320948803006</v>
       </c>
       <c r="H74" t="n">
-        <v>8.911742566299182</v>
+        <v>9.605403464791435</v>
       </c>
       <c r="I74" t="n">
-        <v>8.911742566299182</v>
+        <v>9.605403464791435</v>
       </c>
       <c r="J74" t="n">
-        <v>8.911742566299182</v>
+        <v>9.605403464791435</v>
       </c>
       <c r="K74" t="n">
-        <v>8.911742566299182</v>
+        <v>9.605403464791435</v>
       </c>
       <c r="L74" t="n">
-        <v>8.911742566299182</v>
+        <v>9.605403464791435</v>
       </c>
       <c r="M74" t="n">
-        <v>8.911742566299182</v>
+        <v>9.605403464791435</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>509.3312280253547</v>
+        <v>507.1311229399763</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>501.9915583013855</v>
+        <v>499.0393554283328</v>
       </c>
       <c r="D75" t="n">
-        <v>484.8627894888182</v>
+        <v>483.5516451379132</v>
       </c>
       <c r="E75" t="n">
-        <v>518.5121444445581</v>
+        <v>518.182090416706</v>
       </c>
       <c r="F75" t="n">
-        <v>501.9909395137988</v>
+        <v>499.0314375296366</v>
       </c>
       <c r="G75" t="n">
-        <v>501.992365027777</v>
+        <v>499.0473897062851</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5819260772505486</v>
+        <v>1.390906680672826</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5819260772505486</v>
+        <v>1.390906680672826</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5819260772505486</v>
+        <v>1.390906680672826</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5819260772505486</v>
+        <v>1.390906680672826</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5819260772505486</v>
+        <v>1.390906680672826</v>
       </c>
       <c r="M75" t="n">
-        <v>0.5819260772505486</v>
+        <v>1.390906680672826</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>502.5734843786361</v>
+        <v>500.4302621090056</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>503.4114950621997</v>
+        <v>500.406510482789</v>
       </c>
       <c r="D76" t="n">
-        <v>514.8535582055368</v>
+        <v>511.7189314165841</v>
       </c>
       <c r="E76" t="n">
-        <v>547.9467071967533</v>
+        <v>547.0541343114057</v>
       </c>
       <c r="F76" t="n">
-        <v>503.4107542010835</v>
+        <v>500.3967973318724</v>
       </c>
       <c r="G76" t="n">
-        <v>503.4124009391957</v>
+        <v>500.4159205507733</v>
       </c>
       <c r="H76" t="n">
-        <v>28.05319069887299</v>
+        <v>29.34399724258775</v>
       </c>
       <c r="I76" t="n">
-        <v>28.05319069887299</v>
+        <v>29.34399724258775</v>
       </c>
       <c r="J76" t="n">
-        <v>28.05319069887299</v>
+        <v>29.34399724258775</v>
       </c>
       <c r="K76" t="n">
-        <v>28.05319069887299</v>
+        <v>29.34399724258775</v>
       </c>
       <c r="L76" t="n">
-        <v>28.05319069887299</v>
+        <v>29.34399724258775</v>
       </c>
       <c r="M76" t="n">
-        <v>28.05319069887299</v>
+        <v>29.34399724258775</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>531.4646857610727</v>
+        <v>529.7505077253768</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>504.9835679045297</v>
+        <v>501.920146435937</v>
       </c>
       <c r="D77" t="n">
-        <v>505.8471350034322</v>
+        <v>504.229922654296</v>
       </c>
       <c r="E77" t="n">
-        <v>538.0412740087993</v>
+        <v>537.0508694434243</v>
       </c>
       <c r="F77" t="n">
-        <v>504.9826799103544</v>
+        <v>501.9086438190129</v>
       </c>
       <c r="G77" t="n">
-        <v>504.9846061019117</v>
+        <v>501.9316850140877</v>
       </c>
       <c r="H77" t="n">
-        <v>17.00954206273213</v>
+        <v>18.64872388903985</v>
       </c>
       <c r="I77" t="n">
-        <v>17.00954206273213</v>
+        <v>18.64872388903985</v>
       </c>
       <c r="J77" t="n">
-        <v>17.00954206273213</v>
+        <v>18.64872388903985</v>
       </c>
       <c r="K77" t="n">
-        <v>17.00954206273213</v>
+        <v>18.64872388903985</v>
       </c>
       <c r="L77" t="n">
-        <v>17.00954206273213</v>
+        <v>18.64872388903985</v>
       </c>
       <c r="M77" t="n">
-        <v>17.00954206273213</v>
+        <v>18.64872388903985</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>521.9931099672618</v>
+        <v>520.5688703249768</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>506.5049287196878</v>
+        <v>503.3849554228544</v>
       </c>
       <c r="D78" t="n">
-        <v>487.5083428928639</v>
+        <v>486.4385795158867</v>
       </c>
       <c r="E78" t="n">
-        <v>521.6766628368317</v>
+        <v>520.5735872818091</v>
       </c>
       <c r="F78" t="n">
-        <v>506.5038918839166</v>
+        <v>503.3716580984752</v>
       </c>
       <c r="G78" t="n">
-        <v>506.5061096983283</v>
+        <v>503.3982011011083</v>
       </c>
       <c r="H78" t="n">
-        <v>-2.065381843498784</v>
+        <v>-0.1168790370430087</v>
       </c>
       <c r="I78" t="n">
-        <v>-2.065381843498784</v>
+        <v>-0.1168790370430087</v>
       </c>
       <c r="J78" t="n">
-        <v>-2.065381843498784</v>
+        <v>-0.1168790370430087</v>
       </c>
       <c r="K78" t="n">
-        <v>-2.065381843498784</v>
+        <v>-0.1168790370430087</v>
       </c>
       <c r="L78" t="n">
-        <v>-2.065381843498784</v>
+        <v>-0.1168790370430087</v>
       </c>
       <c r="M78" t="n">
-        <v>-2.065381843498784</v>
+        <v>-0.1168790370430087</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>504.4395468761891</v>
+        <v>503.2680763858114</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>508.0770015620179</v>
+        <v>504.8985913760023</v>
       </c>
       <c r="D79" t="n">
-        <v>498.3555566743071</v>
+        <v>485.6406368701785</v>
       </c>
       <c r="E79" t="n">
-        <v>530.2583772909722</v>
+        <v>518.8264175101692</v>
       </c>
       <c r="F79" t="n">
-        <v>508.075823000422</v>
+        <v>504.8829912303038</v>
       </c>
       <c r="G79" t="n">
-        <v>508.0783538648384</v>
+        <v>504.9142357382492</v>
       </c>
       <c r="H79" t="n">
-        <v>5.741410508088326</v>
+        <v>-3.307264290188539</v>
       </c>
       <c r="I79" t="n">
-        <v>5.741410508088326</v>
+        <v>-3.307264290188539</v>
       </c>
       <c r="J79" t="n">
-        <v>5.741410508088326</v>
+        <v>-3.307264290188539</v>
       </c>
       <c r="K79" t="n">
-        <v>5.741410508088326</v>
+        <v>-3.307264290188539</v>
       </c>
       <c r="L79" t="n">
-        <v>5.741410508088326</v>
+        <v>-3.307264290188539</v>
       </c>
       <c r="M79" t="n">
-        <v>5.741410508088326</v>
+        <v>-3.307264290188539</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>513.8184120701062</v>
+        <v>501.5913270858138</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>509.5983623771759</v>
+        <v>506.3634003629197</v>
       </c>
       <c r="D80" t="n">
-        <v>498.1006393554872</v>
+        <v>497.4942052856803</v>
       </c>
       <c r="E80" t="n">
-        <v>533.2566965343907</v>
+        <v>531.9439789795321</v>
       </c>
       <c r="F80" t="n">
-        <v>509.5970392704013</v>
+        <v>506.3456822989858</v>
       </c>
       <c r="G80" t="n">
-        <v>509.5998768479951</v>
+        <v>506.3812892478987</v>
       </c>
       <c r="H80" t="n">
-        <v>6.344576459899351</v>
+        <v>8.452383072040904</v>
       </c>
       <c r="I80" t="n">
-        <v>6.344576459899351</v>
+        <v>8.452383072040904</v>
       </c>
       <c r="J80" t="n">
-        <v>6.344576459899351</v>
+        <v>8.452383072040904</v>
       </c>
       <c r="K80" t="n">
-        <v>6.344576459899351</v>
+        <v>8.452383072040904</v>
       </c>
       <c r="L80" t="n">
-        <v>6.344576459899351</v>
+        <v>8.452383072040904</v>
       </c>
       <c r="M80" t="n">
-        <v>6.344576459899351</v>
+        <v>8.452383072040904</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>515.9429388370753</v>
+        <v>514.8157834349606</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>511.1704352195059</v>
+        <v>507.8770363160677</v>
       </c>
       <c r="D81" t="n">
-        <v>510.1565976334957</v>
+        <v>508.0284479183616</v>
       </c>
       <c r="E81" t="n">
-        <v>542.1158923071064</v>
+        <v>544.4911507323852</v>
       </c>
       <c r="F81" t="n">
-        <v>511.1689831162643</v>
+        <v>507.8569484904095</v>
       </c>
       <c r="G81" t="n">
-        <v>511.1721053432339</v>
+        <v>507.897086048239</v>
       </c>
       <c r="H81" t="n">
-        <v>15.47055960058964</v>
+        <v>17.28087275897518</v>
       </c>
       <c r="I81" t="n">
-        <v>15.47055960058964</v>
+        <v>17.28087275897518</v>
       </c>
       <c r="J81" t="n">
-        <v>15.47055960058964</v>
+        <v>17.28087275897518</v>
       </c>
       <c r="K81" t="n">
-        <v>15.47055960058964</v>
+        <v>17.28087275897518</v>
       </c>
       <c r="L81" t="n">
-        <v>15.47055960058964</v>
+        <v>17.28087275897518</v>
       </c>
       <c r="M81" t="n">
-        <v>15.47055960058964</v>
+        <v>17.28087275897518</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>526.6409948200956</v>
+        <v>525.1579090750429</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>512.742508061836</v>
+        <v>509.3906722692156</v>
       </c>
       <c r="D82" t="n">
-        <v>491.9067906566489</v>
+        <v>491.2616097819576</v>
       </c>
       <c r="E82" t="n">
-        <v>526.9357768033138</v>
+        <v>525.8369527103346</v>
       </c>
       <c r="F82" t="n">
-        <v>512.7408908006581</v>
+        <v>509.3682569937848</v>
       </c>
       <c r="G82" t="n">
-        <v>512.7443206037974</v>
+        <v>509.4127716364212</v>
       </c>
       <c r="H82" t="n">
-        <v>-2.671991467771504</v>
+        <v>-1.377598935690748</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.671991467771504</v>
+        <v>-1.377598935690748</v>
       </c>
       <c r="J82" t="n">
-        <v>-2.671991467771504</v>
+        <v>-1.377598935690748</v>
       </c>
       <c r="K82" t="n">
-        <v>-2.671991467771504</v>
+        <v>-1.377598935690748</v>
       </c>
       <c r="L82" t="n">
-        <v>-2.671991467771504</v>
+        <v>-1.377598935690748</v>
       </c>
       <c r="M82" t="n">
-        <v>-2.671991467771504</v>
+        <v>-1.377598935690748</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>510.0705165940645</v>
+        <v>508.0130733335249</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>514.2638688769941</v>
+        <v>510.8554812561331</v>
       </c>
       <c r="D83" t="n">
-        <v>494.8134846591326</v>
+        <v>491.4550340320983</v>
       </c>
       <c r="E83" t="n">
-        <v>527.5011488992316</v>
+        <v>525.5203953894245</v>
       </c>
       <c r="F83" t="n">
-        <v>514.2620736361671</v>
+        <v>510.830631361067</v>
       </c>
       <c r="G83" t="n">
-        <v>514.2658978674707</v>
+        <v>510.8796919188769</v>
       </c>
       <c r="H83" t="n">
-        <v>-3.910755937997304</v>
+        <v>-2.996098545571143</v>
       </c>
       <c r="I83" t="n">
-        <v>-3.910755937997304</v>
+        <v>-2.996098545571143</v>
       </c>
       <c r="J83" t="n">
-        <v>-3.910755937997304</v>
+        <v>-2.996098545571143</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.910755937997304</v>
+        <v>-2.996098545571143</v>
       </c>
       <c r="L83" t="n">
-        <v>-3.910755937997304</v>
+        <v>-2.996098545571143</v>
       </c>
       <c r="M83" t="n">
-        <v>-3.910755937997304</v>
+        <v>-2.996098545571143</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>510.3531129389968</v>
+        <v>507.8593827105619</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>512.3691172092811</v>
+      </c>
+      <c r="D84" t="n">
+        <v>515.3189831287631</v>
+      </c>
+      <c r="E84" t="n">
+        <v>549.7977336368683</v>
+      </c>
+      <c r="F84" t="n">
+        <v>512.3419812083696</v>
+      </c>
+      <c r="G84" t="n">
+        <v>512.3962343092771</v>
+      </c>
+      <c r="H84" t="n">
+        <v>21.01189750875774</v>
+      </c>
+      <c r="I84" t="n">
+        <v>21.01189750875774</v>
+      </c>
+      <c r="J84" t="n">
+        <v>21.01189750875774</v>
+      </c>
+      <c r="K84" t="n">
+        <v>21.01189750875774</v>
+      </c>
+      <c r="L84" t="n">
+        <v>21.01189750875774</v>
+      </c>
+      <c r="M84" t="n">
+        <v>21.01189750875774</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>533.3810147180388</v>
       </c>
     </row>
   </sheetData>
